--- a/TMO_Model.xlsx
+++ b/TMO_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5694D4EA-41B4-48F9-843B-EB97D49C6961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056DA198-C99D-43D8-AC11-86971CA3B50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3720,505 +3720,438 @@
             </c:spPr>
           </c:errBars>
           <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$I$182:$I$262</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+            <c:strRef>
+              <c:f>'[1]Notes | Quant Analysis'!$I$187:$I$267</c:f>
+              <c:strCache>
                 <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v>-0.04</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.5999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.4999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3.2999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3.1999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.0999999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.9999999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.8999999999999991E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.6999999999999989E-2</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.5999999999999988E-2</c:v>
+                  <c:v>n =</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.4999999999999988E-2</c:v>
+                  <c:v>Histogram Data</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.3999999999999987E-2</c:v>
+                  <c:v>Bin</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.2999999999999986E-2</c:v>
+                  <c:v>-4.00%</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.1999999999999985E-2</c:v>
+                  <c:v>-3.90%</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.0999999999999984E-2</c:v>
+                  <c:v>-3.80%</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.9999999999999983E-2</c:v>
+                  <c:v>-3.70%</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.8999999999999982E-2</c:v>
+                  <c:v>-3.60%</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.7999999999999981E-2</c:v>
+                  <c:v>-3.50%</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.699999999999998E-2</c:v>
+                  <c:v>-3.40%</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.599999999999998E-2</c:v>
+                  <c:v>-3.30%</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.4999999999999979E-2</c:v>
+                  <c:v>-3.20%</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.3999999999999978E-2</c:v>
+                  <c:v>-3.10%</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.2999999999999977E-2</c:v>
+                  <c:v>-3.00%</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.1999999999999976E-2</c:v>
+                  <c:v>-2.90%</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.0999999999999975E-2</c:v>
+                  <c:v>-2.80%</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9.9999999999999742E-3</c:v>
+                  <c:v>-2.70%</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-8.9999999999999733E-3</c:v>
+                  <c:v>-2.60%</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-7.9999999999999724E-3</c:v>
+                  <c:v>-2.50%</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-6.9999999999999724E-3</c:v>
+                  <c:v>-2.40%</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-5.9999999999999724E-3</c:v>
+                  <c:v>-2.30%</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-4.9999999999999723E-3</c:v>
+                  <c:v>-2.20%</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-3.9999999999999723E-3</c:v>
+                  <c:v>-2.10%</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-2.9999999999999723E-3</c:v>
+                  <c:v>-2.00%</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.9999999999999723E-3</c:v>
+                  <c:v>-1.90%</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-9.9999999999997227E-4</c:v>
+                  <c:v>-1.80%</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.7755575615628914E-17</c:v>
+                  <c:v>-1.70%</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0000000000000278E-3</c:v>
+                  <c:v>-1.60%</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.0000000000000278E-3</c:v>
+                  <c:v>-1.50%</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.0000000000000278E-3</c:v>
+                  <c:v>-1.40%</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.0000000000000278E-3</c:v>
+                  <c:v>-1.30%</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.0000000000000279E-3</c:v>
+                  <c:v>-1.20%</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.0000000000000279E-3</c:v>
+                  <c:v>-1.10%</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.0000000000000279E-3</c:v>
+                  <c:v>-1.00%</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.0000000000000279E-3</c:v>
+                  <c:v>-0.90%</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.0000000000000288E-3</c:v>
+                  <c:v>-0.80%</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.000000000000003E-2</c:v>
+                  <c:v>-0.70%</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.1000000000000031E-2</c:v>
+                  <c:v>-0.60%</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.2000000000000031E-2</c:v>
+                  <c:v>-0.50%</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.3000000000000032E-2</c:v>
+                  <c:v>-0.40%</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.4000000000000033E-2</c:v>
+                  <c:v>-0.30%</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.5000000000000034E-2</c:v>
+                  <c:v>-0.20%</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.6000000000000035E-2</c:v>
+                  <c:v>-0.10%</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.7000000000000036E-2</c:v>
+                  <c:v>0.00%</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.8000000000000037E-2</c:v>
+                  <c:v>0.10%</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.9000000000000038E-2</c:v>
+                  <c:v>0.20%</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0000000000000039E-2</c:v>
+                  <c:v>0.30%</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.1000000000000039E-2</c:v>
+                  <c:v>0.40%</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.200000000000004E-2</c:v>
+                  <c:v>0.50%</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.3000000000000041E-2</c:v>
+                  <c:v>0.60%</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.4000000000000042E-2</c:v>
+                  <c:v>0.70%</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.5000000000000043E-2</c:v>
+                  <c:v>0.80%</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.6000000000000044E-2</c:v>
+                  <c:v>0.90%</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.7000000000000045E-2</c:v>
+                  <c:v>1.00%</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.8000000000000046E-2</c:v>
+                  <c:v>1.10%</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.9000000000000047E-2</c:v>
+                  <c:v>1.20%</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.0000000000000047E-2</c:v>
+                  <c:v>1.30%</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.1000000000000048E-2</c:v>
+                  <c:v>1.40%</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.2000000000000049E-2</c:v>
+                  <c:v>1.50%</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.300000000000005E-2</c:v>
+                  <c:v>1.60%</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.4000000000000051E-2</c:v>
+                  <c:v>1.70%</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.5000000000000052E-2</c:v>
+                  <c:v>1.80%</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.6000000000000053E-2</c:v>
+                  <c:v>1.90%</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.7000000000000054E-2</c:v>
+                  <c:v>2.00%</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.8000000000000055E-2</c:v>
+                  <c:v>2.10%</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.9000000000000055E-2</c:v>
+                  <c:v>2.20%</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.0000000000000056E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2.30%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$J$182:$J$262</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$J$187:$J$267</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
-                <c:pt idx="0">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="#,##0">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="21">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="22">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="23">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="24">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="26">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="27">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="28">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="29">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="30">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="31">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="32">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="34">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="36">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="37">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="38">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="39">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="40">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="41">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="42">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="43">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="44">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="45">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="46">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="47">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="48">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="49">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="50">
                   <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="70">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="71">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="72">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="73">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="74">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="75">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="76">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="77">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="78">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="79">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="80">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4235,12 +4168,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Notes | Quant Analysis'!$L$180</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$L$185</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Distribution Overlay</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4257,517 +4187,429 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$L$182:$L$264</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+            <c:strRef>
+              <c:f>'[1]Notes | Quant Analysis'!$L$187:$L$269</c:f>
+              <c:strCache>
                 <c:ptCount val="83"/>
-                <c:pt idx="0">
-                  <c:v>-4.1000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.04</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.6999999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-3.5999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.4999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3.2999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-3.1999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-3.0999999999999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.9999999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.8999999999999991E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.6999999999999989E-2</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.5999999999999988E-2</c:v>
+                  <c:v>Distribution Overlay</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.4999999999999988E-2</c:v>
+                  <c:v> (X) 1-Day Δ  </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.3999999999999987E-2</c:v>
+                  <c:v>-4.10%</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.2999999999999986E-2</c:v>
+                  <c:v>-4.00%</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.1999999999999985E-2</c:v>
+                  <c:v>-3.90%</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.0999999999999984E-2</c:v>
+                  <c:v>-3.80%</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.9999999999999983E-2</c:v>
+                  <c:v>-3.70%</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.8999999999999982E-2</c:v>
+                  <c:v>-3.60%</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.7999999999999981E-2</c:v>
+                  <c:v>-3.50%</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.699999999999998E-2</c:v>
+                  <c:v>-3.40%</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.599999999999998E-2</c:v>
+                  <c:v>-3.30%</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.4999999999999979E-2</c:v>
+                  <c:v>-3.20%</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.3999999999999978E-2</c:v>
+                  <c:v>-3.10%</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-1.2999999999999977E-2</c:v>
+                  <c:v>-3.00%</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.1999999999999976E-2</c:v>
+                  <c:v>-2.90%</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.0999999999999975E-2</c:v>
+                  <c:v>-2.80%</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-9.9999999999999742E-3</c:v>
+                  <c:v>-2.70%</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-8.9999999999999733E-3</c:v>
+                  <c:v>-2.60%</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7.9999999999999724E-3</c:v>
+                  <c:v>-2.50%</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6.9999999999999724E-3</c:v>
+                  <c:v>-2.40%</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-5.9999999999999724E-3</c:v>
+                  <c:v>-2.30%</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-4.9999999999999723E-3</c:v>
+                  <c:v>-2.20%</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-3.9999999999999723E-3</c:v>
+                  <c:v>-2.10%</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-2.9999999999999723E-3</c:v>
+                  <c:v>-2.00%</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.9999999999999723E-3</c:v>
+                  <c:v>-1.90%</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-9.9999999999997227E-4</c:v>
+                  <c:v>-1.80%</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.7755575615628914E-17</c:v>
+                  <c:v>-1.70%</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0000000000000278E-3</c:v>
+                  <c:v>-1.60%</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.0000000000000278E-3</c:v>
+                  <c:v>-1.50%</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.0000000000000278E-3</c:v>
+                  <c:v>-1.40%</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.0000000000000278E-3</c:v>
+                  <c:v>-1.30%</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.0000000000000279E-3</c:v>
+                  <c:v>-1.20%</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.0000000000000279E-3</c:v>
+                  <c:v>-1.10%</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.0000000000000279E-3</c:v>
+                  <c:v>-1.00%</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.0000000000000279E-3</c:v>
+                  <c:v>-0.90%</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.0000000000000288E-3</c:v>
+                  <c:v>-0.80%</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.000000000000003E-2</c:v>
+                  <c:v>-0.70%</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1000000000000031E-2</c:v>
+                  <c:v>-0.60%</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2000000000000031E-2</c:v>
+                  <c:v>-0.50%</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.3000000000000032E-2</c:v>
+                  <c:v>-0.40%</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.4000000000000033E-2</c:v>
+                  <c:v>-0.30%</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.5000000000000034E-2</c:v>
+                  <c:v>-0.20%</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.6000000000000035E-2</c:v>
+                  <c:v>-0.10%</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.7000000000000036E-2</c:v>
+                  <c:v>0.00%</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8000000000000037E-2</c:v>
+                  <c:v>0.10%</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.9000000000000038E-2</c:v>
+                  <c:v>0.20%</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0000000000000039E-2</c:v>
+                  <c:v>0.30%</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.1000000000000039E-2</c:v>
+                  <c:v>0.40%</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.200000000000004E-2</c:v>
+                  <c:v>0.50%</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.3000000000000041E-2</c:v>
+                  <c:v>0.60%</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.4000000000000042E-2</c:v>
+                  <c:v>0.70%</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.5000000000000043E-2</c:v>
+                  <c:v>0.80%</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.6000000000000044E-2</c:v>
+                  <c:v>0.90%</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.7000000000000045E-2</c:v>
+                  <c:v>1.00%</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.8000000000000046E-2</c:v>
+                  <c:v>1.10%</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.9000000000000047E-2</c:v>
+                  <c:v>1.20%</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.0000000000000047E-2</c:v>
+                  <c:v>1.30%</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.1000000000000048E-2</c:v>
+                  <c:v>1.40%</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.2000000000000049E-2</c:v>
+                  <c:v>1.50%</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.300000000000005E-2</c:v>
+                  <c:v>1.60%</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.4000000000000051E-2</c:v>
+                  <c:v>1.70%</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.5000000000000052E-2</c:v>
+                  <c:v>1.80%</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.6000000000000053E-2</c:v>
+                  <c:v>1.90%</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.7000000000000054E-2</c:v>
+                  <c:v>2.00%</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.8000000000000055E-2</c:v>
+                  <c:v>2.10%</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.9000000000000055E-2</c:v>
+                  <c:v>2.20%</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.0000000000000056E-2</c:v>
+                  <c:v>2.30%</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.1000000000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>2.40%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$M$182:$M$264</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$M$187:$M$269</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="83"/>
-                <c:pt idx="0">
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.24330261971412301</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="18">
                   <c:v>0.30633285338385041</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="19">
                   <c:v>0.38351958154803484</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="20">
                   <c:v>0.47745086551047328</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="21">
                   <c:v>0.59104017531798669</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="22">
                   <c:v>0.72753266253923077</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="23">
                   <c:v>0.89050254374147597</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="24">
                   <c:v>1.0838395846539897</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="25">
                   <c:v>1.3117226816436751</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="26">
                   <c:v>1.578578645060458</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="27">
                   <c:v>1.8890245151375733</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="28">
                   <c:v>2.2477920988013178</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="29">
                   <c:v>2.6596339130588227</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="30">
                   <c:v>3.1292103587889639</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="31">
                   <c:v>3.6609587205509038</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="32">
                   <c:v>4.258945476645092</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="33">
                   <c:v>4.9267043820016658</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="34">
                   <c:v>5.6670638170172571</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
                   <c:v>6.4819679309391072</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="36">
                   <c:v>7.3722970932413006</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="37">
                   <c:v>8.3376940391129448</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="38">
                   <c:v>9.3764027912942609</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="39">
                   <c:v>10.485127896633797</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="40">
                   <c:v>11.658921673763489</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="41">
                   <c:v>12.891106979905215</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="42">
                   <c:v>14.173242436056498</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="43">
                   <c:v>15.495136085031207</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="44">
                   <c:v>16.844912102018611</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="45">
                   <c:v>18.209133462105321</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="46">
                   <c:v>19.572981447529923</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="47">
                   <c:v>20.920490626570793</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="48">
                   <c:v>22.234835553740457</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="49">
                   <c:v>23.49866304135163</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="50">
                   <c:v>24.694461559704717</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="51">
                   <c:v>25.804957264360048</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="52">
                   <c:v>26.81352444662306</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="53">
                   <c:v>27.704596967012165</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="54">
                   <c:v>28.464066550027482</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="55">
                   <c:v>29.079653753616999</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="56">
                   <c:v>29.541238007479279</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="57">
                   <c:v>29.84113433421124</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="58">
                   <c:v>29.974306183221255</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="59">
                   <c:v>29.938506141234956</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="60">
                   <c:v>29.734339026119326</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="61">
                   <c:v>29.365244888858772</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="62">
                   <c:v>28.837402591235453</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="63">
                   <c:v>28.159557735840721</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="64">
                   <c:v>27.342781644290781</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="65">
                   <c:v>26.400170664392089</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="66">
                   <c:v>25.346497213325758</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="67">
                   <c:v>24.197825535155634</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="68">
                   <c:v>22.971106103509396</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="69">
                   <c:v>21.683762906467617</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="70">
                   <c:v>20.353287519327644</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="71">
                   <c:v>18.996852945382901</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="72">
                   <c:v>17.630958759087321</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="73">
                   <c:v>16.271117218493135</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="74">
                   <c:v>14.931587840618413</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="75">
                   <c:v>13.625165579865037</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="76">
                   <c:v>12.363025342638814</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="77">
                   <c:v>11.154623231589555</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="78">
                   <c:v>10.007652748181465</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="79">
                   <c:v>8.9280522821969779</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="80">
                   <c:v>7.9200586489003983</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="81">
                   <c:v>6.9863002426241483</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="82">
                   <c:v>6.1279225789406535</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5.3447385928472428</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.6353960236808662</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.9975545082321977</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.4280655687282566</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.9231494610784972</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.4785637766983237</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2.089759704725016</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.7520229011767259</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.4605969252869571</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.210788147600123</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.99805187629411873</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.81806016490533739</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.66675234354585899</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.54036975333680215</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.43547646445183286</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.34896793239983337</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.27806961002886771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4784,12 +4626,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Notes | Quant Analysis'!$O$182</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$O$187</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mean</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4881,31 +4720,19 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$P$182:$P$183</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$P$187:$P$188</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.8840192365155138E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4810405770502317E-4</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$Q$182:$Q$183</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$Q$187:$Q$188</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4921,12 +4748,9 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Notes | Quant Analysis'!$O$184</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$O$189</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-3σ</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5018,31 +4842,19 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$P$184:$P$185</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$P$189:$P$190</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>-3.9630645898099899E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.9630645898099899E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$Q$184:$Q$185</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$Q$189:$Q$190</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5058,12 +4870,9 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Notes | Quant Analysis'!$O$186</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$O$191</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-2σ</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5155,31 +4964,19 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$P$186:$P$187</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$P$191:$P$192</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>-2.6324296624182748E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.6324296624182748E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$Q$186:$Q$187</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$Q$191:$Q$192</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5195,12 +4992,9 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Notes | Quant Analysis'!$O$188</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$O$193</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-1σ</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5292,31 +5086,19 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$P$188:$P$189</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$P$193:$P$194</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>-1.3017947350265598E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.3017947350265598E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$Q$188:$Q$189</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$Q$193:$Q$194</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5332,12 +5114,9 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Notes | Quant Analysis'!$O$190</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$O$195</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1σ</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5465,31 +5244,19 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$P$190:$P$191</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$P$195:$P$196</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.3594751197568701E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3594751197568701E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$Q$190:$Q$191</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$Q$195:$Q$196</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5505,12 +5272,9 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Notes | Quant Analysis'!$O$192</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$O$197</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2σ</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5602,31 +5366,19 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$P$192:$P$193</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$P$197:$P$198</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.6901100471485851E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6901100471485851E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$Q$192:$Q$193</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$Q$197:$Q$198</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5642,12 +5394,9 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[1]Notes | Quant Analysis'!$O$194</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$O$199</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3σ</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -5768,31 +5517,19 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$P$194:$P$195</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$P$199:$P$200</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4.0207449745403002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0207449745403002E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Notes | Quant Analysis'!$Q$194:$Q$195</c:f>
+              <c:f>'[1]Notes | Quant Analysis'!$Q$199:$Q$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8835,1264 +8572,987 @@
         </row>
       </sheetData>
       <sheetData sheetId="2">
-        <row r="180">
-          <cell r="L180" t="str">
-            <v>Distribution Overlay</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="I182">
-            <v>-0.04</v>
-          </cell>
-          <cell r="J182">
-            <v>1</v>
-          </cell>
-          <cell r="L182">
-            <v>-4.1000000000000002E-2</v>
-          </cell>
-          <cell r="M182">
-            <v>0.24330261971412301</v>
-          </cell>
-          <cell r="O182" t="str">
-            <v>Mean</v>
-          </cell>
-          <cell r="P182">
-            <v>2.8840192365155138E-4</v>
-          </cell>
-          <cell r="Q182">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="I183">
-            <v>-3.9E-2</v>
-          </cell>
-          <cell r="J183">
-            <v>1</v>
-          </cell>
-          <cell r="L183">
-            <v>-0.04</v>
-          </cell>
-          <cell r="M183">
-            <v>0.30633285338385041</v>
-          </cell>
-          <cell r="P183">
-            <v>3.4810405770502317E-4</v>
-          </cell>
-          <cell r="Q183">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="I184">
-            <v>-3.7999999999999999E-2</v>
-          </cell>
-          <cell r="J184">
-            <v>0</v>
-          </cell>
-          <cell r="L184">
-            <v>-3.9E-2</v>
-          </cell>
-          <cell r="M184">
-            <v>0.38351958154803484</v>
-          </cell>
-          <cell r="O184" t="str">
-            <v>-3σ</v>
-          </cell>
-          <cell r="P184">
-            <v>-3.9630645898099899E-2</v>
-          </cell>
-          <cell r="Q184">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="I185">
-            <v>-3.6999999999999998E-2</v>
-          </cell>
-          <cell r="J185">
-            <v>0</v>
-          </cell>
-          <cell r="L185">
-            <v>-3.7999999999999999E-2</v>
-          </cell>
-          <cell r="M185">
-            <v>0.47745086551047328</v>
-          </cell>
-          <cell r="P185">
-            <v>-3.9630645898099899E-2</v>
-          </cell>
-          <cell r="Q185">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="I186">
-            <v>-3.5999999999999997E-2</v>
-          </cell>
-          <cell r="J186">
-            <v>1</v>
-          </cell>
-          <cell r="L186">
-            <v>-3.6999999999999998E-2</v>
-          </cell>
-          <cell r="M186">
-            <v>0.59104017531798669</v>
-          </cell>
-          <cell r="O186" t="str">
-            <v>-2σ</v>
-          </cell>
-          <cell r="P186">
-            <v>-2.6324296624182748E-2</v>
-          </cell>
-          <cell r="Q186">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="I187">
-            <v>-3.4999999999999996E-2</v>
-          </cell>
-          <cell r="J187">
-            <v>4</v>
-          </cell>
-          <cell r="L187">
-            <v>-3.5999999999999997E-2</v>
-          </cell>
-          <cell r="M187">
-            <v>0.72753266253923077</v>
-          </cell>
-          <cell r="P187">
-            <v>-2.6324296624182748E-2</v>
-          </cell>
-          <cell r="Q187">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="I188">
-            <v>-3.3999999999999996E-2</v>
-          </cell>
-          <cell r="J188">
-            <v>2</v>
-          </cell>
-          <cell r="L188">
-            <v>-3.4999999999999996E-2</v>
-          </cell>
-          <cell r="M188">
-            <v>0.89050254374147597</v>
-          </cell>
-          <cell r="O188" t="str">
-            <v>-1σ</v>
-          </cell>
-          <cell r="P188">
-            <v>-1.3017947350265598E-2</v>
-          </cell>
-          <cell r="Q188">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="I189">
-            <v>-3.2999999999999995E-2</v>
-          </cell>
-          <cell r="J189">
-            <v>1</v>
-          </cell>
-          <cell r="L189">
-            <v>-3.3999999999999996E-2</v>
-          </cell>
-          <cell r="M189">
-            <v>1.0838395846539897</v>
-          </cell>
-          <cell r="P189">
-            <v>-1.3017947350265598E-2</v>
-          </cell>
-          <cell r="Q189">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="I190">
-            <v>-3.1999999999999994E-2</v>
-          </cell>
-          <cell r="J190">
-            <v>1</v>
-          </cell>
-          <cell r="L190">
-            <v>-3.2999999999999995E-2</v>
-          </cell>
-          <cell r="M190">
-            <v>1.3117226816436751</v>
-          </cell>
-          <cell r="O190" t="str">
-            <v>1σ</v>
-          </cell>
-          <cell r="P190">
-            <v>1.3594751197568701E-2</v>
-          </cell>
-          <cell r="Q190">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="I191">
-            <v>-3.0999999999999993E-2</v>
-          </cell>
-          <cell r="J191">
-            <v>3</v>
-          </cell>
-          <cell r="L191">
-            <v>-3.1999999999999994E-2</v>
-          </cell>
-          <cell r="M191">
-            <v>1.578578645060458</v>
-          </cell>
-          <cell r="P191">
-            <v>1.3594751197568701E-2</v>
-          </cell>
-          <cell r="Q191">
-            <v>25</v>
-          </cell>
-        </row>
         <row r="192">
-          <cell r="I192">
-            <v>-2.9999999999999992E-2</v>
-          </cell>
-          <cell r="J192">
-            <v>1</v>
-          </cell>
-          <cell r="L192">
-            <v>-3.0999999999999993E-2</v>
-          </cell>
-          <cell r="M192">
-            <v>1.8890245151375733</v>
-          </cell>
-          <cell r="O192" t="str">
-            <v>2σ</v>
-          </cell>
-          <cell r="P192">
-            <v>2.6901100471485851E-2</v>
-          </cell>
-          <cell r="Q192">
-            <v>0</v>
+          <cell r="J192" t="str">
+            <v>Min</v>
           </cell>
         </row>
         <row r="193">
-          <cell r="I193">
-            <v>-2.8999999999999991E-2</v>
-          </cell>
-          <cell r="J193">
-            <v>4</v>
-          </cell>
-          <cell r="L193">
-            <v>-2.9999999999999992E-2</v>
-          </cell>
-          <cell r="M193">
-            <v>2.2477920988013178</v>
-          </cell>
-          <cell r="P193">
-            <v>2.6901100471485851E-2</v>
-          </cell>
-          <cell r="Q193">
-            <v>7</v>
+          <cell r="J193" t="str">
+            <v>Max</v>
           </cell>
         </row>
         <row r="194">
-          <cell r="I194">
-            <v>-2.799999999999999E-2</v>
-          </cell>
-          <cell r="J194">
-            <v>1</v>
-          </cell>
-          <cell r="L194">
-            <v>-2.8999999999999991E-2</v>
-          </cell>
-          <cell r="M194">
-            <v>2.6596339130588227</v>
-          </cell>
-          <cell r="O194" t="str">
-            <v>3σ</v>
-          </cell>
-          <cell r="P194">
-            <v>4.0207449745403002E-2</v>
-          </cell>
-          <cell r="Q194">
-            <v>0</v>
+          <cell r="J194" t="str">
+            <v>Mean μ</v>
           </cell>
         </row>
         <row r="195">
-          <cell r="I195">
-            <v>-2.6999999999999989E-2</v>
-          </cell>
-          <cell r="J195">
-            <v>4</v>
-          </cell>
-          <cell r="L195">
-            <v>-2.799999999999999E-2</v>
-          </cell>
-          <cell r="M195">
-            <v>3.1292103587889639</v>
-          </cell>
-          <cell r="P195">
-            <v>4.0207449745403002E-2</v>
-          </cell>
-          <cell r="Q195">
-            <v>3</v>
+          <cell r="J195" t="str">
+            <v>Median</v>
           </cell>
         </row>
         <row r="196">
-          <cell r="I196">
-            <v>-2.5999999999999988E-2</v>
-          </cell>
-          <cell r="J196">
-            <v>1</v>
-          </cell>
-          <cell r="L196">
-            <v>-2.6999999999999989E-2</v>
-          </cell>
-          <cell r="M196">
-            <v>3.6609587205509038</v>
+          <cell r="J196" t="str">
+            <v>SD σ</v>
           </cell>
         </row>
         <row r="197">
-          <cell r="I197">
-            <v>-2.4999999999999988E-2</v>
-          </cell>
-          <cell r="J197">
-            <v>5</v>
-          </cell>
-          <cell r="L197">
-            <v>-2.5999999999999988E-2</v>
-          </cell>
-          <cell r="M197">
-            <v>4.258945476645092</v>
+          <cell r="J197" t="str">
+            <v xml:space="preserve">  3σ 1-Day Δ: ±</v>
+          </cell>
+          <cell r="M197" t="str">
+            <v>&lt;- Sharpe Ratio (Risk Adjusted Return)</v>
           </cell>
         </row>
         <row r="198">
-          <cell r="I198">
-            <v>-2.3999999999999987E-2</v>
-          </cell>
-          <cell r="J198">
-            <v>1</v>
-          </cell>
-          <cell r="L198">
-            <v>-2.4999999999999988E-2</v>
-          </cell>
-          <cell r="M198">
-            <v>4.9267043820016658</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="I199">
-            <v>-2.2999999999999986E-2</v>
-          </cell>
-          <cell r="J199">
-            <v>2</v>
-          </cell>
-          <cell r="L199">
-            <v>-2.3999999999999987E-2</v>
-          </cell>
-          <cell r="M199">
-            <v>5.6670638170172571</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="I200">
-            <v>-2.1999999999999985E-2</v>
-          </cell>
-          <cell r="J200">
-            <v>2</v>
-          </cell>
-          <cell r="L200">
-            <v>-2.2999999999999986E-2</v>
-          </cell>
-          <cell r="M200">
-            <v>6.4819679309391072</v>
+          <cell r="J198" t="str">
+            <v>β (1-year avg.)</v>
+          </cell>
+          <cell r="M198" t="str">
+            <v>&lt;- Sortino Ratio (Downside Risk Adjusted Return)</v>
           </cell>
         </row>
         <row r="201">
-          <cell r="I201">
-            <v>-2.0999999999999984E-2</v>
+          <cell r="I201" t="str">
+            <v>n =</v>
           </cell>
           <cell r="J201">
-            <v>3</v>
-          </cell>
-          <cell r="L201">
-            <v>-2.1999999999999985E-2</v>
-          </cell>
-          <cell r="M201">
-            <v>7.3722970932413006</v>
+            <v>1014</v>
           </cell>
         </row>
         <row r="202">
-          <cell r="I202">
-            <v>-1.9999999999999983E-2</v>
-          </cell>
-          <cell r="J202">
-            <v>5</v>
-          </cell>
-          <cell r="L202">
-            <v>-2.0999999999999984E-2</v>
-          </cell>
-          <cell r="M202">
-            <v>8.3376940391129448</v>
+          <cell r="I202" t="str">
+            <v>Histogram Data</v>
+          </cell>
+          <cell r="L202" t="str">
+            <v>Distribution Overlay</v>
           </cell>
         </row>
         <row r="203">
-          <cell r="I203">
-            <v>-1.8999999999999982E-2</v>
-          </cell>
-          <cell r="J203">
-            <v>9</v>
-          </cell>
-          <cell r="L203">
-            <v>-1.9999999999999983E-2</v>
-          </cell>
-          <cell r="M203">
-            <v>9.3764027912942609</v>
+          <cell r="I203" t="str">
+            <v>Bin</v>
+          </cell>
+          <cell r="J203" t="str">
+            <v>Frequency</v>
+          </cell>
+          <cell r="L203" t="str">
+            <v xml:space="preserve"> (X) 1-Day Δ  </v>
+          </cell>
+          <cell r="M203" t="str">
+            <v xml:space="preserve">(Y) Pop. Density </v>
           </cell>
         </row>
         <row r="204">
           <cell r="I204">
-            <v>-1.7999999999999981E-2</v>
+            <v>-0.04</v>
           </cell>
           <cell r="J204">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="L204">
-            <v>-1.8999999999999982E-2</v>
+            <v>-4.1000000000000002E-2</v>
           </cell>
           <cell r="M204">
-            <v>10.485127896633797</v>
+            <v>0.24330261971412301</v>
           </cell>
         </row>
         <row r="205">
           <cell r="I205">
-            <v>-1.699999999999998E-2</v>
+            <v>-3.9E-2</v>
           </cell>
           <cell r="J205">
-            <v>10</v>
+            <v>1</v>
           </cell>
           <cell r="L205">
-            <v>-1.7999999999999981E-2</v>
+            <v>-0.04</v>
           </cell>
           <cell r="M205">
-            <v>11.658921673763489</v>
+            <v>0.30633285338385041</v>
           </cell>
         </row>
         <row r="206">
           <cell r="I206">
-            <v>-1.599999999999998E-2</v>
+            <v>-3.7999999999999999E-2</v>
           </cell>
           <cell r="J206">
-            <v>13</v>
+            <v>0</v>
           </cell>
           <cell r="L206">
-            <v>-1.699999999999998E-2</v>
+            <v>-3.9E-2</v>
           </cell>
           <cell r="M206">
-            <v>12.891106979905215</v>
+            <v>0.38351958154803484</v>
           </cell>
         </row>
         <row r="207">
           <cell r="I207">
-            <v>-1.4999999999999979E-2</v>
+            <v>-3.6999999999999998E-2</v>
           </cell>
           <cell r="J207">
-            <v>11</v>
+            <v>0</v>
           </cell>
           <cell r="L207">
-            <v>-1.599999999999998E-2</v>
+            <v>-3.7999999999999999E-2</v>
           </cell>
           <cell r="M207">
-            <v>14.173242436056498</v>
+            <v>0.47745086551047328</v>
           </cell>
         </row>
         <row r="208">
           <cell r="I208">
-            <v>-1.3999999999999978E-2</v>
+            <v>-3.5999999999999997E-2</v>
           </cell>
           <cell r="J208">
-            <v>24</v>
+            <v>1</v>
           </cell>
           <cell r="L208">
-            <v>-1.4999999999999979E-2</v>
+            <v>-3.6999999999999998E-2</v>
           </cell>
           <cell r="M208">
-            <v>15.495136085031207</v>
+            <v>0.59104017531798669</v>
           </cell>
         </row>
         <row r="209">
           <cell r="I209">
-            <v>-1.2999999999999977E-2</v>
+            <v>-3.4999999999999996E-2</v>
           </cell>
           <cell r="J209">
-            <v>18</v>
+            <v>4</v>
           </cell>
           <cell r="L209">
-            <v>-1.3999999999999978E-2</v>
+            <v>-3.5999999999999997E-2</v>
           </cell>
           <cell r="M209">
-            <v>16.844912102018611</v>
+            <v>0.72753266253923077</v>
           </cell>
         </row>
         <row r="210">
           <cell r="I210">
-            <v>-1.1999999999999976E-2</v>
+            <v>-3.3999999999999996E-2</v>
           </cell>
           <cell r="J210">
-            <v>27</v>
+            <v>2</v>
           </cell>
           <cell r="L210">
-            <v>-1.2999999999999977E-2</v>
+            <v>-3.4999999999999996E-2</v>
           </cell>
           <cell r="M210">
-            <v>18.209133462105321</v>
+            <v>0.89050254374147597</v>
           </cell>
         </row>
         <row r="211">
           <cell r="I211">
-            <v>-1.0999999999999975E-2</v>
+            <v>-3.2999999999999995E-2</v>
           </cell>
           <cell r="J211">
-            <v>18</v>
+            <v>1</v>
           </cell>
           <cell r="L211">
-            <v>-1.1999999999999976E-2</v>
+            <v>-3.3999999999999996E-2</v>
           </cell>
           <cell r="M211">
-            <v>19.572981447529923</v>
+            <v>1.0838395846539897</v>
           </cell>
         </row>
         <row r="212">
           <cell r="I212">
-            <v>-9.9999999999999742E-3</v>
+            <v>-3.1999999999999994E-2</v>
           </cell>
           <cell r="J212">
-            <v>19</v>
+            <v>1</v>
           </cell>
           <cell r="L212">
-            <v>-1.0999999999999975E-2</v>
+            <v>-3.2999999999999995E-2</v>
           </cell>
           <cell r="M212">
-            <v>20.920490626570793</v>
+            <v>1.3117226816436751</v>
           </cell>
         </row>
         <row r="213">
           <cell r="I213">
-            <v>-8.9999999999999733E-3</v>
+            <v>-3.0999999999999993E-2</v>
           </cell>
           <cell r="J213">
-            <v>24</v>
+            <v>3</v>
           </cell>
           <cell r="L213">
-            <v>-9.9999999999999742E-3</v>
+            <v>-3.1999999999999994E-2</v>
           </cell>
           <cell r="M213">
-            <v>22.234835553740457</v>
+            <v>1.578578645060458</v>
           </cell>
         </row>
         <row r="214">
           <cell r="I214">
-            <v>-7.9999999999999724E-3</v>
+            <v>-2.9999999999999992E-2</v>
           </cell>
           <cell r="J214">
-            <v>16</v>
+            <v>1</v>
           </cell>
           <cell r="L214">
-            <v>-8.9999999999999733E-3</v>
+            <v>-3.0999999999999993E-2</v>
           </cell>
           <cell r="M214">
-            <v>23.49866304135163</v>
+            <v>1.8890245151375733</v>
           </cell>
         </row>
         <row r="215">
           <cell r="I215">
-            <v>-6.9999999999999724E-3</v>
+            <v>-2.8999999999999991E-2</v>
           </cell>
           <cell r="J215">
-            <v>26</v>
+            <v>4</v>
           </cell>
           <cell r="L215">
-            <v>-7.9999999999999724E-3</v>
+            <v>-2.9999999999999992E-2</v>
           </cell>
           <cell r="M215">
-            <v>24.694461559704717</v>
+            <v>2.2477920988013178</v>
           </cell>
         </row>
         <row r="216">
           <cell r="I216">
-            <v>-5.9999999999999724E-3</v>
+            <v>-2.799999999999999E-2</v>
           </cell>
           <cell r="J216">
-            <v>29</v>
+            <v>1</v>
           </cell>
           <cell r="L216">
-            <v>-6.9999999999999724E-3</v>
+            <v>-2.8999999999999991E-2</v>
           </cell>
           <cell r="M216">
-            <v>25.804957264360048</v>
+            <v>2.6596339130588227</v>
           </cell>
         </row>
         <row r="217">
           <cell r="I217">
-            <v>-4.9999999999999723E-3</v>
+            <v>-2.6999999999999989E-2</v>
           </cell>
           <cell r="J217">
-            <v>17</v>
+            <v>4</v>
           </cell>
           <cell r="L217">
-            <v>-5.9999999999999724E-3</v>
+            <v>-2.799999999999999E-2</v>
           </cell>
           <cell r="M217">
-            <v>26.81352444662306</v>
+            <v>3.1292103587889639</v>
           </cell>
         </row>
         <row r="218">
           <cell r="I218">
-            <v>-3.9999999999999723E-3</v>
+            <v>-2.5999999999999988E-2</v>
           </cell>
           <cell r="J218">
-            <v>23</v>
+            <v>1</v>
           </cell>
           <cell r="L218">
-            <v>-4.9999999999999723E-3</v>
+            <v>-2.6999999999999989E-2</v>
           </cell>
           <cell r="M218">
-            <v>27.704596967012165</v>
+            <v>3.6609587205509038</v>
           </cell>
         </row>
         <row r="219">
           <cell r="I219">
-            <v>-2.9999999999999723E-3</v>
+            <v>-2.4999999999999988E-2</v>
           </cell>
           <cell r="J219">
-            <v>37</v>
+            <v>5</v>
           </cell>
           <cell r="L219">
-            <v>-3.9999999999999723E-3</v>
+            <v>-2.5999999999999988E-2</v>
           </cell>
           <cell r="M219">
-            <v>28.464066550027482</v>
+            <v>4.258945476645092</v>
           </cell>
         </row>
         <row r="220">
           <cell r="I220">
-            <v>-1.9999999999999723E-3</v>
+            <v>-2.3999999999999987E-2</v>
           </cell>
           <cell r="J220">
-            <v>41</v>
+            <v>1</v>
           </cell>
           <cell r="L220">
-            <v>-2.9999999999999723E-3</v>
+            <v>-2.4999999999999988E-2</v>
           </cell>
           <cell r="M220">
-            <v>29.079653753616999</v>
+            <v>4.9267043820016658</v>
           </cell>
         </row>
         <row r="221">
           <cell r="I221">
-            <v>-9.9999999999997227E-4</v>
+            <v>-2.2999999999999986E-2</v>
           </cell>
           <cell r="J221">
-            <v>35</v>
+            <v>2</v>
           </cell>
           <cell r="L221">
-            <v>-1.9999999999999723E-3</v>
+            <v>-2.3999999999999987E-2</v>
           </cell>
           <cell r="M221">
-            <v>29.541238007479279</v>
+            <v>5.6670638170172571</v>
           </cell>
         </row>
         <row r="222">
           <cell r="I222">
-            <v>2.7755575615628914E-17</v>
+            <v>-2.1999999999999985E-2</v>
           </cell>
           <cell r="J222">
-            <v>45</v>
+            <v>2</v>
           </cell>
           <cell r="L222">
-            <v>-9.9999999999997227E-4</v>
+            <v>-2.2999999999999986E-2</v>
           </cell>
           <cell r="M222">
-            <v>29.84113433421124</v>
+            <v>6.4819679309391072</v>
           </cell>
         </row>
         <row r="223">
           <cell r="I223">
-            <v>1.0000000000000278E-3</v>
+            <v>-2.0999999999999984E-2</v>
           </cell>
           <cell r="J223">
-            <v>53</v>
+            <v>3</v>
           </cell>
           <cell r="L223">
-            <v>2.7755575615628914E-17</v>
+            <v>-2.1999999999999985E-2</v>
           </cell>
           <cell r="M223">
-            <v>29.974306183221255</v>
+            <v>7.3722970932413006</v>
           </cell>
         </row>
         <row r="224">
           <cell r="I224">
-            <v>2.0000000000000278E-3</v>
+            <v>-1.9999999999999983E-2</v>
           </cell>
           <cell r="J224">
-            <v>37</v>
+            <v>5</v>
           </cell>
           <cell r="L224">
-            <v>1.0000000000000278E-3</v>
+            <v>-2.0999999999999984E-2</v>
           </cell>
           <cell r="M224">
-            <v>29.938506141234956</v>
+            <v>8.3376940391129448</v>
           </cell>
         </row>
         <row r="225">
           <cell r="I225">
-            <v>3.0000000000000278E-3</v>
+            <v>-1.8999999999999982E-2</v>
           </cell>
           <cell r="J225">
-            <v>26</v>
+            <v>9</v>
           </cell>
           <cell r="L225">
-            <v>2.0000000000000278E-3</v>
+            <v>-1.9999999999999983E-2</v>
           </cell>
           <cell r="M225">
-            <v>29.734339026119326</v>
+            <v>9.3764027912942609</v>
           </cell>
         </row>
         <row r="226">
           <cell r="I226">
-            <v>4.0000000000000278E-3</v>
+            <v>-1.7999999999999981E-2</v>
           </cell>
           <cell r="J226">
-            <v>39</v>
+            <v>6</v>
           </cell>
           <cell r="L226">
-            <v>3.0000000000000278E-3</v>
+            <v>-1.8999999999999982E-2</v>
           </cell>
           <cell r="M226">
-            <v>29.365244888858772</v>
+            <v>10.485127896633797</v>
           </cell>
         </row>
         <row r="227">
           <cell r="I227">
-            <v>5.0000000000000279E-3</v>
+            <v>-1.699999999999998E-2</v>
           </cell>
           <cell r="J227">
-            <v>33</v>
+            <v>10</v>
           </cell>
           <cell r="L227">
-            <v>4.0000000000000278E-3</v>
+            <v>-1.7999999999999981E-2</v>
           </cell>
           <cell r="M227">
-            <v>28.837402591235453</v>
+            <v>11.658921673763489</v>
           </cell>
         </row>
         <row r="228">
           <cell r="I228">
-            <v>6.0000000000000279E-3</v>
+            <v>-1.599999999999998E-2</v>
           </cell>
           <cell r="J228">
-            <v>29</v>
+            <v>13</v>
           </cell>
           <cell r="L228">
-            <v>5.0000000000000279E-3</v>
+            <v>-1.699999999999998E-2</v>
           </cell>
           <cell r="M228">
-            <v>28.159557735840721</v>
+            <v>12.891106979905215</v>
           </cell>
         </row>
         <row r="229">
           <cell r="I229">
-            <v>7.0000000000000279E-3</v>
+            <v>-1.4999999999999979E-2</v>
           </cell>
           <cell r="J229">
-            <v>26</v>
+            <v>11</v>
           </cell>
           <cell r="L229">
-            <v>6.0000000000000279E-3</v>
+            <v>-1.599999999999998E-2</v>
           </cell>
           <cell r="M229">
-            <v>27.342781644290781</v>
+            <v>14.173242436056498</v>
           </cell>
         </row>
         <row r="230">
           <cell r="I230">
-            <v>8.0000000000000279E-3</v>
+            <v>-1.3999999999999978E-2</v>
           </cell>
           <cell r="J230">
-            <v>22</v>
+            <v>24</v>
           </cell>
           <cell r="L230">
-            <v>7.0000000000000279E-3</v>
+            <v>-1.4999999999999979E-2</v>
           </cell>
           <cell r="M230">
-            <v>26.400170664392089</v>
+            <v>15.495136085031207</v>
           </cell>
         </row>
         <row r="231">
           <cell r="I231">
-            <v>9.0000000000000288E-3</v>
+            <v>-1.2999999999999977E-2</v>
           </cell>
           <cell r="J231">
-            <v>24</v>
+            <v>18</v>
           </cell>
           <cell r="L231">
-            <v>8.0000000000000279E-3</v>
+            <v>-1.3999999999999978E-2</v>
           </cell>
           <cell r="M231">
-            <v>25.346497213325758</v>
+            <v>16.844912102018611</v>
           </cell>
         </row>
         <row r="232">
           <cell r="I232">
-            <v>1.000000000000003E-2</v>
+            <v>-1.1999999999999976E-2</v>
           </cell>
           <cell r="J232">
-            <v>30</v>
+            <v>27</v>
           </cell>
           <cell r="L232">
-            <v>9.0000000000000288E-3</v>
+            <v>-1.2999999999999977E-2</v>
           </cell>
           <cell r="M232">
-            <v>24.197825535155634</v>
+            <v>18.209133462105321</v>
           </cell>
         </row>
         <row r="233">
           <cell r="I233">
-            <v>1.1000000000000031E-2</v>
+            <v>-1.0999999999999975E-2</v>
           </cell>
           <cell r="J233">
-            <v>29</v>
+            <v>18</v>
           </cell>
           <cell r="L233">
-            <v>1.000000000000003E-2</v>
+            <v>-1.1999999999999976E-2</v>
           </cell>
           <cell r="M233">
-            <v>22.971106103509396</v>
+            <v>19.572981447529923</v>
           </cell>
         </row>
         <row r="234">
           <cell r="I234">
-            <v>1.2000000000000031E-2</v>
+            <v>-9.9999999999999742E-3</v>
           </cell>
           <cell r="J234">
-            <v>21</v>
+            <v>19</v>
           </cell>
           <cell r="L234">
-            <v>1.1000000000000031E-2</v>
+            <v>-1.0999999999999975E-2</v>
           </cell>
           <cell r="M234">
-            <v>21.683762906467617</v>
+            <v>20.920490626570793</v>
           </cell>
         </row>
         <row r="235">
           <cell r="I235">
-            <v>1.3000000000000032E-2</v>
+            <v>-8.9999999999999733E-3</v>
           </cell>
           <cell r="J235">
-            <v>19</v>
+            <v>24</v>
           </cell>
           <cell r="L235">
-            <v>1.2000000000000031E-2</v>
+            <v>-9.9999999999999742E-3</v>
           </cell>
           <cell r="M235">
-            <v>20.353287519327644</v>
+            <v>22.234835553740457</v>
           </cell>
         </row>
         <row r="236">
           <cell r="I236">
-            <v>1.4000000000000033E-2</v>
+            <v>-7.9999999999999724E-3</v>
           </cell>
           <cell r="J236">
-            <v>20</v>
+            <v>16</v>
           </cell>
           <cell r="L236">
-            <v>1.3000000000000032E-2</v>
+            <v>-8.9999999999999733E-3</v>
           </cell>
           <cell r="M236">
-            <v>18.996852945382901</v>
+            <v>23.49866304135163</v>
           </cell>
         </row>
         <row r="237">
           <cell r="I237">
-            <v>1.5000000000000034E-2</v>
+            <v>-6.9999999999999724E-3</v>
           </cell>
           <cell r="J237">
-            <v>11</v>
+            <v>26</v>
           </cell>
           <cell r="L237">
-            <v>1.4000000000000033E-2</v>
+            <v>-7.9999999999999724E-3</v>
           </cell>
           <cell r="M237">
-            <v>17.630958759087321</v>
+            <v>24.694461559704717</v>
           </cell>
         </row>
         <row r="238">
           <cell r="I238">
-            <v>1.6000000000000035E-2</v>
+            <v>-5.9999999999999724E-3</v>
           </cell>
           <cell r="J238">
-            <v>11</v>
+            <v>29</v>
           </cell>
           <cell r="L238">
-            <v>1.5000000000000034E-2</v>
+            <v>-6.9999999999999724E-3</v>
           </cell>
           <cell r="M238">
-            <v>16.271117218493135</v>
+            <v>25.804957264360048</v>
           </cell>
         </row>
         <row r="239">
           <cell r="I239">
-            <v>1.7000000000000036E-2</v>
+            <v>-4.9999999999999723E-3</v>
           </cell>
           <cell r="J239">
-            <v>7</v>
+            <v>17</v>
           </cell>
           <cell r="L239">
-            <v>1.6000000000000035E-2</v>
+            <v>-5.9999999999999724E-3</v>
           </cell>
           <cell r="M239">
-            <v>14.931587840618413</v>
+            <v>26.81352444662306</v>
           </cell>
         </row>
         <row r="240">
           <cell r="I240">
-            <v>1.8000000000000037E-2</v>
+            <v>-3.9999999999999723E-3</v>
           </cell>
           <cell r="J240">
-            <v>12</v>
+            <v>23</v>
           </cell>
           <cell r="L240">
-            <v>1.7000000000000036E-2</v>
+            <v>-4.9999999999999723E-3</v>
           </cell>
           <cell r="M240">
-            <v>13.625165579865037</v>
+            <v>27.704596967012165</v>
           </cell>
         </row>
         <row r="241">
           <cell r="I241">
-            <v>1.9000000000000038E-2</v>
+            <v>-2.9999999999999723E-3</v>
           </cell>
           <cell r="J241">
-            <v>7</v>
+            <v>37</v>
           </cell>
           <cell r="L241">
-            <v>1.8000000000000037E-2</v>
+            <v>-3.9999999999999723E-3</v>
           </cell>
           <cell r="M241">
-            <v>12.363025342638814</v>
+            <v>28.464066550027482</v>
           </cell>
         </row>
         <row r="242">
           <cell r="I242">
-            <v>2.0000000000000039E-2</v>
+            <v>-1.9999999999999723E-3</v>
           </cell>
           <cell r="J242">
-            <v>5</v>
+            <v>41</v>
           </cell>
           <cell r="L242">
-            <v>1.9000000000000038E-2</v>
+            <v>-2.9999999999999723E-3</v>
           </cell>
           <cell r="M242">
-            <v>11.154623231589555</v>
+            <v>29.079653753616999</v>
           </cell>
         </row>
         <row r="243">
           <cell r="I243">
-            <v>2.1000000000000039E-2</v>
+            <v>-9.9999999999997227E-4</v>
           </cell>
           <cell r="J243">
-            <v>7</v>
+            <v>35</v>
           </cell>
           <cell r="L243">
-            <v>2.0000000000000039E-2</v>
+            <v>-1.9999999999999723E-3</v>
           </cell>
           <cell r="M243">
-            <v>10.007652748181465</v>
+            <v>29.541238007479279</v>
           </cell>
         </row>
         <row r="244">
           <cell r="I244">
-            <v>2.200000000000004E-2</v>
+            <v>2.7755575615628914E-17</v>
           </cell>
           <cell r="J244">
-            <v>14</v>
+            <v>45</v>
           </cell>
           <cell r="L244">
-            <v>2.1000000000000039E-2</v>
+            <v>-9.9999999999997227E-4</v>
           </cell>
           <cell r="M244">
-            <v>8.9280522821969779</v>
+            <v>29.84113433421124</v>
           </cell>
         </row>
         <row r="245">
           <cell r="I245">
-            <v>2.3000000000000041E-2</v>
+            <v>1.0000000000000278E-3</v>
           </cell>
           <cell r="J245">
-            <v>3</v>
+            <v>53</v>
           </cell>
           <cell r="L245">
-            <v>2.200000000000004E-2</v>
+            <v>2.7755575615628914E-17</v>
           </cell>
           <cell r="M245">
-            <v>7.9200586489003983</v>
+            <v>29.974306183221255</v>
           </cell>
         </row>
         <row r="246">
           <cell r="I246">
-            <v>2.4000000000000042E-2</v>
+            <v>2.0000000000000278E-3</v>
           </cell>
           <cell r="J246">
-            <v>7</v>
+            <v>37</v>
           </cell>
           <cell r="L246">
-            <v>2.3000000000000041E-2</v>
+            <v>1.0000000000000278E-3</v>
           </cell>
           <cell r="M246">
-            <v>6.9863002426241483</v>
+            <v>29.938506141234956</v>
           </cell>
         </row>
         <row r="247">
           <cell r="I247">
-            <v>2.5000000000000043E-2</v>
+            <v>3.0000000000000278E-3</v>
           </cell>
           <cell r="J247">
-            <v>7</v>
+            <v>26</v>
           </cell>
           <cell r="L247">
-            <v>2.4000000000000042E-2</v>
+            <v>2.0000000000000278E-3</v>
           </cell>
           <cell r="M247">
-            <v>6.1279225789406535</v>
+            <v>29.734339026119326</v>
           </cell>
         </row>
         <row r="248">
           <cell r="I248">
-            <v>2.6000000000000044E-2</v>
+            <v>4.0000000000000278E-3</v>
           </cell>
           <cell r="J248">
-            <v>8</v>
+            <v>39</v>
           </cell>
           <cell r="L248">
-            <v>2.5000000000000043E-2</v>
+            <v>3.0000000000000278E-3</v>
           </cell>
           <cell r="M248">
-            <v>5.3447385928472428</v>
+            <v>29.365244888858772</v>
           </cell>
         </row>
         <row r="249">
           <cell r="I249">
-            <v>2.7000000000000045E-2</v>
+            <v>5.0000000000000279E-3</v>
           </cell>
           <cell r="J249">
-            <v>2</v>
+            <v>33</v>
           </cell>
           <cell r="L249">
-            <v>2.6000000000000044E-2</v>
+            <v>4.0000000000000278E-3</v>
           </cell>
           <cell r="M249">
-            <v>4.6353960236808662</v>
+            <v>28.837402591235453</v>
           </cell>
         </row>
         <row r="250">
           <cell r="I250">
-            <v>2.8000000000000046E-2</v>
+            <v>6.0000000000000279E-3</v>
           </cell>
           <cell r="J250">
-            <v>0</v>
+            <v>29</v>
           </cell>
           <cell r="L250">
-            <v>2.7000000000000045E-2</v>
+            <v>5.0000000000000279E-3</v>
           </cell>
           <cell r="M250">
-            <v>3.9975545082321977</v>
+            <v>28.159557735840721</v>
           </cell>
         </row>
         <row r="251">
           <cell r="I251">
-            <v>2.9000000000000047E-2</v>
+            <v>7.0000000000000279E-3</v>
           </cell>
           <cell r="J251">
-            <v>4</v>
+            <v>26</v>
           </cell>
           <cell r="L251">
-            <v>2.8000000000000046E-2</v>
+            <v>6.0000000000000279E-3</v>
           </cell>
           <cell r="M251">
-            <v>3.4280655687282566</v>
+            <v>27.342781644290781</v>
           </cell>
         </row>
         <row r="252">
           <cell r="I252">
-            <v>3.0000000000000047E-2</v>
+            <v>8.0000000000000279E-3</v>
           </cell>
           <cell r="J252">
-            <v>1</v>
+            <v>22</v>
           </cell>
           <cell r="L252">
-            <v>2.9000000000000047E-2</v>
+            <v>7.0000000000000279E-3</v>
           </cell>
           <cell r="M252">
-            <v>2.9231494610784972</v>
+            <v>26.400170664392089</v>
           </cell>
         </row>
         <row r="253">
           <cell r="I253">
-            <v>3.1000000000000048E-2</v>
+            <v>9.0000000000000288E-3</v>
           </cell>
           <cell r="J253">
-            <v>2</v>
+            <v>24</v>
           </cell>
           <cell r="L253">
-            <v>3.0000000000000047E-2</v>
+            <v>8.0000000000000279E-3</v>
           </cell>
           <cell r="M253">
-            <v>2.4785637766983237</v>
+            <v>25.346497213325758</v>
           </cell>
         </row>
         <row r="254">
           <cell r="I254">
-            <v>3.2000000000000049E-2</v>
+            <v>1.000000000000003E-2</v>
           </cell>
           <cell r="J254">
-            <v>2</v>
+            <v>30</v>
           </cell>
           <cell r="L254">
-            <v>3.1000000000000048E-2</v>
+            <v>9.0000000000000288E-3</v>
           </cell>
           <cell r="M254">
-            <v>2.089759704725016</v>
+            <v>24.197825535155634</v>
           </cell>
         </row>
         <row r="255">
           <cell r="I255">
-            <v>3.300000000000005E-2</v>
+            <v>1.1000000000000031E-2</v>
           </cell>
           <cell r="J255">
-            <v>0</v>
+            <v>29</v>
           </cell>
           <cell r="L255">
-            <v>3.2000000000000049E-2</v>
+            <v>1.000000000000003E-2</v>
           </cell>
           <cell r="M255">
-            <v>1.7520229011767259</v>
+            <v>22.971106103509396</v>
           </cell>
         </row>
         <row r="256">
           <cell r="I256">
-            <v>3.4000000000000051E-2</v>
+            <v>1.2000000000000031E-2</v>
           </cell>
           <cell r="J256">
-            <v>2</v>
+            <v>21</v>
           </cell>
           <cell r="L256">
-            <v>3.300000000000005E-2</v>
+            <v>1.1000000000000031E-2</v>
           </cell>
           <cell r="M256">
-            <v>1.4605969252869571</v>
+            <v>21.683762906467617</v>
           </cell>
         </row>
         <row r="257">
           <cell r="I257">
-            <v>3.5000000000000052E-2</v>
+            <v>1.3000000000000032E-2</v>
           </cell>
           <cell r="J257">
-            <v>2</v>
+            <v>19</v>
           </cell>
           <cell r="L257">
-            <v>3.4000000000000051E-2</v>
+            <v>1.2000000000000031E-2</v>
           </cell>
           <cell r="M257">
-            <v>1.210788147600123</v>
+            <v>20.353287519327644</v>
           </cell>
         </row>
         <row r="258">
           <cell r="I258">
-            <v>3.6000000000000053E-2</v>
+            <v>1.4000000000000033E-2</v>
           </cell>
           <cell r="J258">
-            <v>0</v>
+            <v>20</v>
           </cell>
           <cell r="L258">
-            <v>3.5000000000000052E-2</v>
+            <v>1.3000000000000032E-2</v>
           </cell>
           <cell r="M258">
-            <v>0.99805187629411873</v>
+            <v>18.996852945382901</v>
           </cell>
         </row>
         <row r="259">
           <cell r="I259">
-            <v>3.7000000000000054E-2</v>
+            <v>1.5000000000000034E-2</v>
           </cell>
           <cell r="J259">
-            <v>0</v>
+            <v>11</v>
           </cell>
           <cell r="L259">
-            <v>3.6000000000000053E-2</v>
+            <v>1.4000000000000033E-2</v>
           </cell>
           <cell r="M259">
-            <v>0.81806016490533739</v>
+            <v>17.630958759087321</v>
           </cell>
         </row>
         <row r="260">
           <cell r="I260">
-            <v>3.8000000000000055E-2</v>
+            <v>1.6000000000000035E-2</v>
           </cell>
           <cell r="J260">
-            <v>0</v>
+            <v>11</v>
           </cell>
           <cell r="L260">
-            <v>3.7000000000000054E-2</v>
+            <v>1.5000000000000034E-2</v>
           </cell>
           <cell r="M260">
-            <v>0.66675234354585899</v>
+            <v>16.271117218493135</v>
           </cell>
         </row>
         <row r="261">
           <cell r="I261">
-            <v>3.9000000000000055E-2</v>
+            <v>1.7000000000000036E-2</v>
           </cell>
           <cell r="J261">
-            <v>0</v>
+            <v>7</v>
           </cell>
           <cell r="L261">
-            <v>3.8000000000000055E-2</v>
+            <v>1.6000000000000035E-2</v>
           </cell>
           <cell r="M261">
-            <v>0.54036975333680215</v>
+            <v>14.931587840618413</v>
           </cell>
         </row>
         <row r="262">
           <cell r="I262">
-            <v>4.0000000000000056E-2</v>
+            <v>1.8000000000000037E-2</v>
           </cell>
           <cell r="J262">
-            <v>1</v>
+            <v>12</v>
           </cell>
           <cell r="L262">
-            <v>3.9000000000000055E-2</v>
+            <v>1.7000000000000036E-2</v>
           </cell>
           <cell r="M262">
-            <v>0.43547646445183286</v>
+            <v>13.625165579865037</v>
           </cell>
         </row>
         <row r="263">
+          <cell r="I263">
+            <v>1.9000000000000038E-2</v>
+          </cell>
+          <cell r="J263">
+            <v>7</v>
+          </cell>
           <cell r="L263">
-            <v>4.0000000000000056E-2</v>
+            <v>1.8000000000000037E-2</v>
           </cell>
           <cell r="M263">
-            <v>0.34896793239983337</v>
+            <v>12.363025342638814</v>
           </cell>
         </row>
         <row r="264">
+          <cell r="I264">
+            <v>2.0000000000000039E-2</v>
+          </cell>
+          <cell r="J264">
+            <v>5</v>
+          </cell>
           <cell r="L264">
-            <v>4.1000000000000002E-2</v>
+            <v>1.9000000000000038E-2</v>
           </cell>
           <cell r="M264">
-            <v>0.27806961002886771</v>
+            <v>11.154623231589555</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="I265">
+            <v>2.1000000000000039E-2</v>
+          </cell>
+          <cell r="J265">
+            <v>7</v>
+          </cell>
+          <cell r="L265">
+            <v>2.0000000000000039E-2</v>
+          </cell>
+          <cell r="M265">
+            <v>10.007652748181465</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="I266">
+            <v>2.200000000000004E-2</v>
+          </cell>
+          <cell r="J266">
+            <v>14</v>
+          </cell>
+          <cell r="L266">
+            <v>2.1000000000000039E-2</v>
+          </cell>
+          <cell r="M266">
+            <v>8.9280522821969779</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="I267">
+            <v>2.3000000000000041E-2</v>
+          </cell>
+          <cell r="J267">
+            <v>3</v>
+          </cell>
+          <cell r="L267">
+            <v>2.200000000000004E-2</v>
+          </cell>
+          <cell r="M267">
+            <v>7.9200586489003983</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="L268">
+            <v>2.3000000000000041E-2</v>
+          </cell>
+          <cell r="M268">
+            <v>6.9863002426241483</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="L269">
+            <v>2.4000000000000042E-2</v>
+          </cell>
+          <cell r="M269">
+            <v>6.1279225789406535</v>
           </cell>
         </row>
       </sheetData>

--- a/TMO_Model.xlsx
+++ b/TMO_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Health Care\MedTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056DA198-C99D-43D8-AC11-86971CA3B50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEF4988-FB17-42E2-9733-C4204268BD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="14505" windowHeight="11055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -88,12 +88,6 @@
     <t>Company Overview:</t>
   </si>
   <si>
-    <t>Business Segements and Geographical Info:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Begin researching fundementals / core business … begin with SEC filings, but expand and use all public resources available] </t>
-  </si>
-  <si>
     <t>[Bold Title]</t>
   </si>
   <si>
@@ -832,6 +826,12 @@
   </si>
   <si>
     <t>Thermo Fisher Scientific Inc. was founded in 1956 and is headquartered in Waltham, Massachusetts</t>
+  </si>
+  <si>
+    <t>Business Segments and Geographical Info:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Begin researching fundamentals / core business … begin with SEC filings, but expand and use all public resources available] </t>
   </si>
 </sst>
 </file>
@@ -2095,7 +2095,7 @@
                   <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-398</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>281</c:v>
@@ -2351,7 +2351,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>792</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>289</c:v>
@@ -2515,7 +2515,7 @@
                   <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-158</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>171</c:v>
@@ -2527,7 +2527,7 @@
                   <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-75</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>166</c:v>
@@ -2643,7 +2643,7 @@
                   <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>315</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>164</c:v>
@@ -2655,7 +2655,7 @@
                   <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>285</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>162</c:v>
@@ -3059,67 +3059,67 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>493</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-83</c:v>
+                  <c:v>-87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>621</c:v>
+                  <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>568</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>302</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>592</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>438</c:v>
+                  <c:v>495</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>662</c:v>
+                  <c:v>757</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>323</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>656</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>563</c:v>
+                  <c:v>761</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>592</c:v>
+                  <c:v>679</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>738</c:v>
+                  <c:v>899</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>692</c:v>
+                  <c:v>869</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1143</c:v>
+                  <c:v>1226</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>788</c:v>
+                  <c:v>923</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>825</c:v>
+                  <c:v>998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>834</c:v>
+                  <c:v>1043</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>546</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>654</c:v>
+                  <c:v>764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,70 +3150,70 @@
             <c:numRef>
               <c:f>[1]Model!$AW$103:$BQ$103</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>447</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1017</c:v>
+                  <c:v>-83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>254</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1072</c:v>
+                  <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>369</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1150</c:v>
+                  <c:v>592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>425</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>794</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>386</c:v>
+                  <c:v>656</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>751</c:v>
+                  <c:v>816</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>815</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>315</c:v>
+                  <c:v>592</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>536</c:v>
+                  <c:v>738</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>902</c:v>
+                  <c:v>692</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1383</c:v>
+                  <c:v>1143</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37</c:v>
+                  <c:v>788</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>481</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1304</c:v>
+                  <c:v>834</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1665</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>127</c:v>
+                  <c:v>654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3287,70 +3287,70 @@
             <c:numRef>
               <c:f>[1]Model!$AW$44:$BQ$44</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3588</c:v>
+                  <c:v>2.0477815699658786E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2764</c:v>
+                  <c:v>-0.24273972602739724</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3737</c:v>
+                  <c:v>4.1817674937273397E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4262</c:v>
+                  <c:v>3.1711450012103626E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3953</c:v>
+                  <c:v>0.1017279821627648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4294</c:v>
+                  <c:v>0.55354558610709126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4160</c:v>
+                  <c:v>0.11319240032111311</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4701</c:v>
+                  <c:v>0.10300328484279686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4275</c:v>
+                  <c:v>8.1457121173792002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4493</c:v>
+                  <c:v>4.6343735444806633E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4479</c:v>
+                  <c:v>7.6682692307692202E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5202</c:v>
+                  <c:v>0.10657306955966805</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4778</c:v>
+                  <c:v>0.11766081871345024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4996</c:v>
+                  <c:v>0.11195192521700426</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4909</c:v>
+                  <c:v>9.6003572225943357E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5815</c:v>
+                  <c:v>0.1178392925797771</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5243</c:v>
+                  <c:v>9.7321054834658804E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5422</c:v>
+                  <c:v>8.526821457165723E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5494</c:v>
+                  <c:v>0.11916887349765726</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6436</c:v>
+                  <c:v>0.10679277730008607</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5866</c:v>
+                  <c:v>0.11882510013351144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3724,206 +3724,116 @@
               <c:f>'[1]Notes | Quant Analysis'!$I$187:$I$267</c:f>
               <c:strCache>
                 <c:ptCount val="81"/>
-                <c:pt idx="14">
+                <c:pt idx="30">
+                  <c:v>The return distribution fits a Gaussian curve well, implying that daily change follows a roughly normal distribution </c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>There is slight implied upside to mean 1-day returns</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>n =</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="47">
                   <c:v>Histogram Data</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="48">
                   <c:v>Bin</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="49">
                   <c:v>-4.00%</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="50">
                   <c:v>-3.90%</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="51">
                   <c:v>-3.80%</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="52">
                   <c:v>-3.70%</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="53">
                   <c:v>-3.60%</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="54">
                   <c:v>-3.50%</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="55">
                   <c:v>-3.40%</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="56">
                   <c:v>-3.30%</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="57">
                   <c:v>-3.20%</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="58">
                   <c:v>-3.10%</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="59">
                   <c:v>-3.00%</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="60">
                   <c:v>-2.90%</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="61">
                   <c:v>-2.80%</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="62">
                   <c:v>-2.70%</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="63">
                   <c:v>-2.60%</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="64">
                   <c:v>-2.50%</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="65">
                   <c:v>-2.40%</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="66">
                   <c:v>-2.30%</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="67">
                   <c:v>-2.20%</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="68">
                   <c:v>-2.10%</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="69">
                   <c:v>-2.00%</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="70">
                   <c:v>-1.90%</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="71">
                   <c:v>-1.80%</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="72">
                   <c:v>-1.70%</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="73">
                   <c:v>-1.60%</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="74">
                   <c:v>-1.50%</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="75">
                   <c:v>-1.40%</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="76">
                   <c:v>-1.30%</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="77">
                   <c:v>-1.20%</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="78">
                   <c:v>-1.10%</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="79">
                   <c:v>-1.00%</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="80">
                   <c:v>-0.90%</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.80%</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-0.70%</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.60%</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.50%</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.40%</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.30%</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-0.20%</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-0.10%</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.00%</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.10%</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.20%</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.30%</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.40%</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.50%</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.60%</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.70%</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.80%</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.90%</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.00%</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.10%</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.20%</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.30%</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.40%</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.50%</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.60%</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.70%</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.80%</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.90%</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.00%</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.10%</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.20%</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.30%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3934,224 +3844,128 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
-                <c:pt idx="5">
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="#,##0">
+                <c:pt idx="46" formatCode="#,##0">
                   <c:v>1014</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="48">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="49">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="50">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="51">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="53">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="54">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="55">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="56">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="57">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="58">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="59">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="60">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="61">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="62">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="63">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="64">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="65">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="66">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="67">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="68">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="69">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="70">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="71">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="72">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="73">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="74">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="75">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="76">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="77">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="78">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="79">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="80">
                   <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4191,209 +4005,113 @@
               <c:f>'[1]Notes | Quant Analysis'!$L$187:$L$269</c:f>
               <c:strCache>
                 <c:ptCount val="83"/>
-                <c:pt idx="15">
+                <c:pt idx="47">
                   <c:v>Distribution Overlay</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="48">
                   <c:v> (X) 1-Day Δ  </c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="49">
                   <c:v>-4.10%</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="50">
                   <c:v>-4.00%</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="51">
                   <c:v>-3.90%</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="52">
                   <c:v>-3.80%</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="53">
                   <c:v>-3.70%</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="54">
                   <c:v>-3.60%</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="55">
                   <c:v>-3.50%</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="56">
                   <c:v>-3.40%</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="57">
                   <c:v>-3.30%</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="58">
                   <c:v>-3.20%</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="59">
                   <c:v>-3.10%</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="60">
                   <c:v>-3.00%</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="61">
                   <c:v>-2.90%</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="62">
                   <c:v>-2.80%</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="63">
                   <c:v>-2.70%</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="64">
                   <c:v>-2.60%</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="65">
                   <c:v>-2.50%</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="66">
                   <c:v>-2.40%</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="67">
                   <c:v>-2.30%</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="68">
                   <c:v>-2.20%</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="69">
                   <c:v>-2.10%</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="70">
                   <c:v>-2.00%</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="71">
                   <c:v>-1.90%</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="72">
                   <c:v>-1.80%</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="73">
                   <c:v>-1.70%</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="74">
                   <c:v>-1.60%</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="75">
                   <c:v>-1.50%</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="76">
                   <c:v>-1.40%</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="77">
                   <c:v>-1.30%</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="78">
                   <c:v>-1.20%</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="79">
                   <c:v>-1.10%</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="80">
                   <c:v>-1.00%</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="81">
                   <c:v>-0.90%</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="82">
                   <c:v>-0.80%</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.70%</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.60%</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.50%</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.40%</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-0.30%</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-0.20%</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-0.10%</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.00%</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.10%</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.20%</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.30%</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.40%</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.50%</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.60%</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.70%</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.80%</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.90%</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.00%</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.10%</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.20%</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.30%</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.40%</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.50%</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.60%</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.70%</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.80%</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.90%</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.00%</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.10%</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.20%</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.30%</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.40%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4404,212 +4122,116 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="83"/>
-                <c:pt idx="10">
+                <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="48">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="49">
                   <c:v>0.24330261971412301</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="50">
                   <c:v>0.30633285338385041</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="51">
                   <c:v>0.38351958154803484</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="52">
                   <c:v>0.47745086551047328</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="53">
                   <c:v>0.59104017531798669</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="54">
                   <c:v>0.72753266253923077</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="55">
                   <c:v>0.89050254374147597</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="56">
                   <c:v>1.0838395846539897</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="57">
                   <c:v>1.3117226816436751</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="58">
                   <c:v>1.578578645060458</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="59">
                   <c:v>1.8890245151375733</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="60">
                   <c:v>2.2477920988013178</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="61">
                   <c:v>2.6596339130588227</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="62">
                   <c:v>3.1292103587889639</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="63">
                   <c:v>3.6609587205509038</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="64">
                   <c:v>4.258945476645092</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="65">
                   <c:v>4.9267043820016658</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="66">
                   <c:v>5.6670638170172571</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="67">
                   <c:v>6.4819679309391072</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="68">
                   <c:v>7.3722970932413006</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="69">
                   <c:v>8.3376940391129448</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="70">
                   <c:v>9.3764027912942609</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="71">
                   <c:v>10.485127896633797</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="72">
                   <c:v>11.658921673763489</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="73">
                   <c:v>12.891106979905215</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="74">
                   <c:v>14.173242436056498</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="75">
                   <c:v>15.495136085031207</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="76">
                   <c:v>16.844912102018611</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="77">
                   <c:v>18.209133462105321</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="78">
                   <c:v>19.572981447529923</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="79">
                   <c:v>20.920490626570793</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="80">
                   <c:v>22.234835553740457</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="81">
                   <c:v>23.49866304135163</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="82">
                   <c:v>24.694461559704717</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>25.804957264360048</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>26.81352444662306</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>27.704596967012165</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>28.464066550027482</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>29.079653753616999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>29.541238007479279</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>29.84113433421124</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>29.974306183221255</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>29.938506141234956</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>29.734339026119326</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>29.365244888858772</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>28.837402591235453</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>28.159557735840721</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>27.342781644290781</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>26.400170664392089</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>25.346497213325758</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>24.197825535155634</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>22.971106103509396</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>21.683762906467617</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>20.353287519327644</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>18.996852945382901</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>17.630958759087321</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>16.271117218493135</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>14.931587840618413</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>13.625165579865037</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>12.363025342638814</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>11.154623231589555</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>10.007652748181465</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>8.9280522821969779</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>7.9200586489003983</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.9863002426241483</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6.1279225789406535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7913,7 +7535,7 @@
             <v>66</v>
           </cell>
           <cell r="AZ7">
-            <v>792</v>
+            <v>82</v>
           </cell>
           <cell r="BA7">
             <v>289</v>
@@ -7981,7 +7603,7 @@
             <v>518</v>
           </cell>
           <cell r="AZ8">
-            <v>-398</v>
+            <v>312</v>
           </cell>
           <cell r="BA8">
             <v>281</v>
@@ -8289,7 +7911,7 @@
             <v>291</v>
           </cell>
           <cell r="BL13">
-            <v>-158</v>
+            <v>122</v>
           </cell>
           <cell r="BM13">
             <v>171</v>
@@ -8301,7 +7923,7 @@
             <v>304</v>
           </cell>
           <cell r="BP13">
-            <v>-75</v>
+            <v>85</v>
           </cell>
           <cell r="BQ13">
             <v>166</v>
@@ -8357,7 +7979,7 @@
             <v>130</v>
           </cell>
           <cell r="BL14">
-            <v>315</v>
+            <v>35</v>
           </cell>
           <cell r="BM14">
             <v>164</v>
@@ -8369,7 +7991,7 @@
             <v>127</v>
           </cell>
           <cell r="BP14">
-            <v>285</v>
+            <v>125</v>
           </cell>
           <cell r="BQ14">
             <v>162</v>
@@ -8377,1182 +7999,744 @@
         </row>
         <row r="44">
           <cell r="AW44">
-            <v>3588</v>
+            <v>2.0477815699658786E-2</v>
           </cell>
           <cell r="AX44">
-            <v>2764</v>
+            <v>-0.24273972602739724</v>
           </cell>
           <cell r="AY44">
-            <v>3737</v>
+            <v>4.1817674937273397E-2</v>
           </cell>
           <cell r="AZ44">
-            <v>4262</v>
+            <v>3.1711450012103626E-2</v>
           </cell>
           <cell r="BA44">
-            <v>3953</v>
+            <v>0.1017279821627648</v>
           </cell>
           <cell r="BB44">
-            <v>4294</v>
+            <v>0.55354558610709126</v>
           </cell>
           <cell r="BC44">
-            <v>4160</v>
+            <v>0.11319240032111311</v>
           </cell>
           <cell r="BD44">
-            <v>4701</v>
+            <v>0.10300328484279686</v>
           </cell>
           <cell r="BE44">
-            <v>4275</v>
+            <v>8.1457121173792002E-2</v>
           </cell>
           <cell r="BF44">
-            <v>4493</v>
+            <v>4.6343735444806633E-2</v>
           </cell>
           <cell r="BG44">
-            <v>4479</v>
+            <v>7.6682692307692202E-2</v>
           </cell>
           <cell r="BH44">
-            <v>5202</v>
+            <v>0.10657306955966805</v>
           </cell>
           <cell r="BI44">
-            <v>4778</v>
+            <v>0.11766081871345024</v>
           </cell>
           <cell r="BJ44">
-            <v>4996</v>
+            <v>0.11195192521700426</v>
           </cell>
           <cell r="BK44">
-            <v>4909</v>
+            <v>9.6003572225943357E-2</v>
           </cell>
           <cell r="BL44">
-            <v>5815</v>
+            <v>0.1178392925797771</v>
           </cell>
           <cell r="BM44">
-            <v>5243</v>
+            <v>9.7321054834658804E-2</v>
           </cell>
           <cell r="BN44">
-            <v>5422</v>
+            <v>8.526821457165723E-2</v>
           </cell>
           <cell r="BO44">
-            <v>5494</v>
+            <v>0.11916887349765726</v>
           </cell>
           <cell r="BP44">
-            <v>6436</v>
+            <v>0.10679277730008607</v>
           </cell>
           <cell r="BQ44">
-            <v>5866</v>
+            <v>0.11882510013351144</v>
           </cell>
         </row>
         <row r="55">
           <cell r="AW55">
-            <v>493</v>
+            <v>590</v>
           </cell>
           <cell r="AX55">
-            <v>-83</v>
+            <v>-87</v>
           </cell>
           <cell r="AY55">
-            <v>621</v>
+            <v>780</v>
           </cell>
           <cell r="AZ55">
-            <v>568</v>
+            <v>671</v>
           </cell>
           <cell r="BA55">
-            <v>302</v>
+            <v>367</v>
           </cell>
           <cell r="BB55">
-            <v>592</v>
+            <v>662</v>
           </cell>
           <cell r="BC55">
-            <v>438</v>
+            <v>495</v>
           </cell>
           <cell r="BD55">
-            <v>662</v>
+            <v>757</v>
           </cell>
           <cell r="BE55">
-            <v>323</v>
+            <v>386</v>
           </cell>
           <cell r="BF55">
-            <v>656</v>
+            <v>720</v>
           </cell>
           <cell r="BG55">
             <v>816</v>
           </cell>
           <cell r="BH55">
-            <v>563</v>
+            <v>761</v>
           </cell>
           <cell r="BI55">
-            <v>592</v>
+            <v>679</v>
           </cell>
           <cell r="BJ55">
-            <v>738</v>
+            <v>899</v>
           </cell>
           <cell r="BK55">
-            <v>692</v>
+            <v>869</v>
           </cell>
           <cell r="BL55">
-            <v>1143</v>
+            <v>1226</v>
           </cell>
           <cell r="BM55">
-            <v>788</v>
+            <v>923</v>
           </cell>
           <cell r="BN55">
-            <v>825</v>
+            <v>998</v>
           </cell>
           <cell r="BO55">
-            <v>834</v>
+            <v>1043</v>
           </cell>
           <cell r="BP55">
-            <v>546</v>
+            <v>528</v>
           </cell>
           <cell r="BQ55">
-            <v>654</v>
+            <v>764</v>
           </cell>
         </row>
         <row r="103">
           <cell r="AW103">
-            <v>447</v>
+            <v>493</v>
           </cell>
           <cell r="AX103">
-            <v>1017</v>
+            <v>-83</v>
           </cell>
           <cell r="AY103">
-            <v>254</v>
+            <v>621</v>
           </cell>
           <cell r="AZ103">
-            <v>1072</v>
+            <v>568</v>
           </cell>
           <cell r="BA103">
-            <v>369</v>
+            <v>302</v>
           </cell>
           <cell r="BB103">
-            <v>1150</v>
+            <v>592</v>
           </cell>
           <cell r="BC103">
-            <v>425</v>
+            <v>438</v>
           </cell>
           <cell r="BD103">
-            <v>794</v>
+            <v>662</v>
           </cell>
           <cell r="BE103">
-            <v>84</v>
+            <v>323</v>
           </cell>
           <cell r="BF103">
-            <v>386</v>
+            <v>656</v>
           </cell>
           <cell r="BG103">
-            <v>751</v>
+            <v>816</v>
           </cell>
           <cell r="BH103">
-            <v>815</v>
+            <v>563</v>
           </cell>
           <cell r="BI103">
-            <v>315</v>
+            <v>592</v>
           </cell>
           <cell r="BJ103">
-            <v>536</v>
+            <v>738</v>
           </cell>
           <cell r="BK103">
-            <v>902</v>
+            <v>692</v>
           </cell>
           <cell r="BL103">
-            <v>1383</v>
+            <v>1143</v>
           </cell>
           <cell r="BM103">
-            <v>37</v>
+            <v>788</v>
           </cell>
           <cell r="BN103">
-            <v>481</v>
+            <v>825</v>
           </cell>
           <cell r="BO103">
-            <v>1304</v>
+            <v>834</v>
           </cell>
           <cell r="BP103">
-            <v>1665</v>
+            <v>546</v>
           </cell>
           <cell r="BQ103">
-            <v>127</v>
+            <v>654</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
-        <row r="192">
-          <cell r="J192" t="str">
-            <v>Min</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="J193" t="str">
-            <v>Max</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="J194" t="str">
-            <v>Mean μ</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="J195" t="str">
-            <v>Median</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="J196" t="str">
-            <v>SD σ</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="J197" t="str">
-            <v xml:space="preserve">  3σ 1-Day Δ: ±</v>
-          </cell>
-          <cell r="M197" t="str">
-            <v>&lt;- Sharpe Ratio (Risk Adjusted Return)</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="J198" t="str">
-            <v>β (1-year avg.)</v>
-          </cell>
-          <cell r="M198" t="str">
-            <v>&lt;- Sortino Ratio (Downside Risk Adjusted Return)</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="I201" t="str">
-            <v>n =</v>
-          </cell>
-          <cell r="J201">
-            <v>1014</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="I202" t="str">
-            <v>Histogram Data</v>
-          </cell>
-          <cell r="L202" t="str">
-            <v>Distribution Overlay</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="I203" t="str">
-            <v>Bin</v>
-          </cell>
-          <cell r="J203" t="str">
-            <v>Frequency</v>
-          </cell>
-          <cell r="L203" t="str">
-            <v xml:space="preserve"> (X) 1-Day Δ  </v>
-          </cell>
-          <cell r="M203" t="str">
-            <v xml:space="preserve">(Y) Pop. Density </v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="I204">
-            <v>-0.04</v>
-          </cell>
-          <cell r="J204">
-            <v>1</v>
-          </cell>
-          <cell r="L204">
-            <v>-4.1000000000000002E-2</v>
-          </cell>
-          <cell r="M204">
-            <v>0.24330261971412301</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="I205">
-            <v>-3.9E-2</v>
-          </cell>
-          <cell r="J205">
-            <v>1</v>
-          </cell>
-          <cell r="L205">
-            <v>-0.04</v>
-          </cell>
-          <cell r="M205">
-            <v>0.30633285338385041</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="I206">
-            <v>-3.7999999999999999E-2</v>
-          </cell>
-          <cell r="J206">
-            <v>0</v>
-          </cell>
-          <cell r="L206">
-            <v>-3.9E-2</v>
-          </cell>
-          <cell r="M206">
-            <v>0.38351958154803484</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="I207">
-            <v>-3.6999999999999998E-2</v>
-          </cell>
-          <cell r="J207">
-            <v>0</v>
-          </cell>
-          <cell r="L207">
-            <v>-3.7999999999999999E-2</v>
-          </cell>
-          <cell r="M207">
-            <v>0.47745086551047328</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="I208">
-            <v>-3.5999999999999997E-2</v>
-          </cell>
-          <cell r="J208">
-            <v>1</v>
-          </cell>
-          <cell r="L208">
-            <v>-3.6999999999999998E-2</v>
-          </cell>
-          <cell r="M208">
-            <v>0.59104017531798669</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="I209">
-            <v>-3.4999999999999996E-2</v>
-          </cell>
-          <cell r="J209">
-            <v>4</v>
-          </cell>
-          <cell r="L209">
-            <v>-3.5999999999999997E-2</v>
-          </cell>
-          <cell r="M209">
-            <v>0.72753266253923077</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="I210">
-            <v>-3.3999999999999996E-2</v>
-          </cell>
-          <cell r="J210">
-            <v>2</v>
-          </cell>
-          <cell r="L210">
-            <v>-3.4999999999999996E-2</v>
-          </cell>
-          <cell r="M210">
-            <v>0.89050254374147597</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="I211">
-            <v>-3.2999999999999995E-2</v>
-          </cell>
-          <cell r="J211">
-            <v>1</v>
-          </cell>
-          <cell r="L211">
-            <v>-3.3999999999999996E-2</v>
-          </cell>
-          <cell r="M211">
-            <v>1.0838395846539897</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="I212">
-            <v>-3.1999999999999994E-2</v>
-          </cell>
-          <cell r="J212">
-            <v>1</v>
-          </cell>
-          <cell r="L212">
-            <v>-3.2999999999999995E-2</v>
-          </cell>
-          <cell r="M212">
-            <v>1.3117226816436751</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="I213">
-            <v>-3.0999999999999993E-2</v>
-          </cell>
-          <cell r="J213">
-            <v>3</v>
-          </cell>
-          <cell r="L213">
-            <v>-3.1999999999999994E-2</v>
-          </cell>
-          <cell r="M213">
-            <v>1.578578645060458</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="I214">
-            <v>-2.9999999999999992E-2</v>
-          </cell>
-          <cell r="J214">
-            <v>1</v>
-          </cell>
-          <cell r="L214">
-            <v>-3.0999999999999993E-2</v>
-          </cell>
-          <cell r="M214">
-            <v>1.8890245151375733</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="I215">
-            <v>-2.8999999999999991E-2</v>
-          </cell>
-          <cell r="J215">
-            <v>4</v>
-          </cell>
-          <cell r="L215">
-            <v>-2.9999999999999992E-2</v>
-          </cell>
-          <cell r="M215">
-            <v>2.2477920988013178</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="I216">
-            <v>-2.799999999999999E-2</v>
-          </cell>
-          <cell r="J216">
-            <v>1</v>
-          </cell>
-          <cell r="L216">
-            <v>-2.8999999999999991E-2</v>
-          </cell>
-          <cell r="M216">
-            <v>2.6596339130588227</v>
-          </cell>
-        </row>
         <row r="217">
-          <cell r="I217">
-            <v>-2.6999999999999989E-2</v>
-          </cell>
-          <cell r="J217">
-            <v>4</v>
-          </cell>
-          <cell r="L217">
-            <v>-2.799999999999999E-2</v>
-          </cell>
-          <cell r="M217">
-            <v>3.1292103587889639</v>
+          <cell r="I217" t="str">
+            <v xml:space="preserve">The return distribution fits a Gaussian curve well, implying that daily change follows a roughly normal distribution </v>
           </cell>
         </row>
         <row r="218">
-          <cell r="I218">
-            <v>-2.5999999999999988E-2</v>
-          </cell>
-          <cell r="J218">
-            <v>1</v>
-          </cell>
-          <cell r="L218">
-            <v>-2.6999999999999989E-2</v>
-          </cell>
-          <cell r="M218">
-            <v>3.6609587205509038</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="I219">
-            <v>-2.4999999999999988E-2</v>
-          </cell>
-          <cell r="J219">
-            <v>5</v>
-          </cell>
-          <cell r="L219">
-            <v>-2.5999999999999988E-2</v>
-          </cell>
-          <cell r="M219">
-            <v>4.258945476645092</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="I220">
-            <v>-2.3999999999999987E-2</v>
-          </cell>
-          <cell r="J220">
-            <v>1</v>
-          </cell>
-          <cell r="L220">
-            <v>-2.4999999999999988E-2</v>
-          </cell>
-          <cell r="M220">
-            <v>4.9267043820016658</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="I221">
-            <v>-2.2999999999999986E-2</v>
-          </cell>
-          <cell r="J221">
-            <v>2</v>
-          </cell>
-          <cell r="L221">
-            <v>-2.3999999999999987E-2</v>
-          </cell>
-          <cell r="M221">
-            <v>5.6670638170172571</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="I222">
-            <v>-2.1999999999999985E-2</v>
-          </cell>
-          <cell r="J222">
-            <v>2</v>
-          </cell>
-          <cell r="L222">
-            <v>-2.2999999999999986E-2</v>
-          </cell>
-          <cell r="M222">
-            <v>6.4819679309391072</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="I223">
-            <v>-2.0999999999999984E-2</v>
-          </cell>
-          <cell r="J223">
-            <v>3</v>
-          </cell>
-          <cell r="L223">
-            <v>-2.1999999999999985E-2</v>
-          </cell>
-          <cell r="M223">
-            <v>7.3722970932413006</v>
+          <cell r="I218" t="str">
+            <v>There is slight implied upside to mean 1-day returns</v>
           </cell>
         </row>
         <row r="224">
-          <cell r="I224">
-            <v>-1.9999999999999983E-2</v>
-          </cell>
-          <cell r="J224">
-            <v>5</v>
-          </cell>
-          <cell r="L224">
-            <v>-2.0999999999999984E-2</v>
-          </cell>
-          <cell r="M224">
-            <v>8.3376940391129448</v>
+          <cell r="J224" t="str">
+            <v>Min</v>
           </cell>
         </row>
         <row r="225">
-          <cell r="I225">
-            <v>-1.8999999999999982E-2</v>
-          </cell>
-          <cell r="J225">
-            <v>9</v>
-          </cell>
-          <cell r="L225">
-            <v>-1.9999999999999983E-2</v>
-          </cell>
-          <cell r="M225">
-            <v>9.3764027912942609</v>
+          <cell r="J225" t="str">
+            <v>Max</v>
           </cell>
         </row>
         <row r="226">
-          <cell r="I226">
-            <v>-1.7999999999999981E-2</v>
-          </cell>
-          <cell r="J226">
-            <v>6</v>
-          </cell>
-          <cell r="L226">
-            <v>-1.8999999999999982E-2</v>
-          </cell>
-          <cell r="M226">
-            <v>10.485127896633797</v>
+          <cell r="J226" t="str">
+            <v>Mean μ</v>
           </cell>
         </row>
         <row r="227">
-          <cell r="I227">
-            <v>-1.699999999999998E-2</v>
-          </cell>
-          <cell r="J227">
-            <v>10</v>
-          </cell>
-          <cell r="L227">
-            <v>-1.7999999999999981E-2</v>
-          </cell>
-          <cell r="M227">
-            <v>11.658921673763489</v>
+          <cell r="J227" t="str">
+            <v>Median</v>
           </cell>
         </row>
         <row r="228">
-          <cell r="I228">
-            <v>-1.599999999999998E-2</v>
-          </cell>
-          <cell r="J228">
-            <v>13</v>
-          </cell>
-          <cell r="L228">
-            <v>-1.699999999999998E-2</v>
-          </cell>
-          <cell r="M228">
-            <v>12.891106979905215</v>
+          <cell r="J228" t="str">
+            <v>SD σ</v>
           </cell>
         </row>
         <row r="229">
-          <cell r="I229">
-            <v>-1.4999999999999979E-2</v>
-          </cell>
-          <cell r="J229">
-            <v>11</v>
-          </cell>
-          <cell r="L229">
-            <v>-1.599999999999998E-2</v>
-          </cell>
-          <cell r="M229">
-            <v>14.173242436056498</v>
+          <cell r="J229" t="str">
+            <v xml:space="preserve">  3σ 1-Day Δ: ±</v>
+          </cell>
+          <cell r="M229" t="str">
+            <v>&lt;- Sharpe Ratio (Risk Adjusted Return)</v>
           </cell>
         </row>
         <row r="230">
-          <cell r="I230">
-            <v>-1.3999999999999978E-2</v>
-          </cell>
-          <cell r="J230">
-            <v>24</v>
-          </cell>
-          <cell r="L230">
-            <v>-1.4999999999999979E-2</v>
-          </cell>
-          <cell r="M230">
-            <v>15.495136085031207</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="I231">
-            <v>-1.2999999999999977E-2</v>
-          </cell>
-          <cell r="J231">
-            <v>18</v>
-          </cell>
-          <cell r="L231">
-            <v>-1.3999999999999978E-2</v>
-          </cell>
-          <cell r="M231">
-            <v>16.844912102018611</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="I232">
-            <v>-1.1999999999999976E-2</v>
-          </cell>
-          <cell r="J232">
-            <v>27</v>
-          </cell>
-          <cell r="L232">
-            <v>-1.2999999999999977E-2</v>
-          </cell>
-          <cell r="M232">
-            <v>18.209133462105321</v>
+          <cell r="J230" t="str">
+            <v>β (1-year avg.)</v>
+          </cell>
+          <cell r="M230" t="str">
+            <v>&lt;- Sortino Ratio (Downside Risk Adjusted Return)</v>
           </cell>
         </row>
         <row r="233">
-          <cell r="I233">
-            <v>-1.0999999999999975E-2</v>
+          <cell r="I233" t="str">
+            <v>n =</v>
           </cell>
           <cell r="J233">
-            <v>18</v>
-          </cell>
-          <cell r="L233">
-            <v>-1.1999999999999976E-2</v>
-          </cell>
-          <cell r="M233">
-            <v>19.572981447529923</v>
+            <v>1014</v>
           </cell>
         </row>
         <row r="234">
-          <cell r="I234">
-            <v>-9.9999999999999742E-3</v>
-          </cell>
-          <cell r="J234">
-            <v>19</v>
-          </cell>
-          <cell r="L234">
-            <v>-1.0999999999999975E-2</v>
-          </cell>
-          <cell r="M234">
-            <v>20.920490626570793</v>
+          <cell r="I234" t="str">
+            <v>Histogram Data</v>
+          </cell>
+          <cell r="L234" t="str">
+            <v>Distribution Overlay</v>
           </cell>
         </row>
         <row r="235">
-          <cell r="I235">
-            <v>-8.9999999999999733E-3</v>
-          </cell>
-          <cell r="J235">
-            <v>24</v>
-          </cell>
-          <cell r="L235">
-            <v>-9.9999999999999742E-3</v>
-          </cell>
-          <cell r="M235">
-            <v>22.234835553740457</v>
+          <cell r="I235" t="str">
+            <v>Bin</v>
+          </cell>
+          <cell r="J235" t="str">
+            <v>Frequency</v>
+          </cell>
+          <cell r="L235" t="str">
+            <v xml:space="preserve"> (X) 1-Day Δ  </v>
+          </cell>
+          <cell r="M235" t="str">
+            <v xml:space="preserve">(Y) Pop. Density </v>
           </cell>
         </row>
         <row r="236">
           <cell r="I236">
-            <v>-7.9999999999999724E-3</v>
+            <v>-0.04</v>
           </cell>
           <cell r="J236">
-            <v>16</v>
+            <v>1</v>
           </cell>
           <cell r="L236">
-            <v>-8.9999999999999733E-3</v>
+            <v>-4.1000000000000002E-2</v>
           </cell>
           <cell r="M236">
-            <v>23.49866304135163</v>
+            <v>0.24330261971412301</v>
           </cell>
         </row>
         <row r="237">
           <cell r="I237">
-            <v>-6.9999999999999724E-3</v>
+            <v>-3.9E-2</v>
           </cell>
           <cell r="J237">
-            <v>26</v>
+            <v>1</v>
           </cell>
           <cell r="L237">
-            <v>-7.9999999999999724E-3</v>
+            <v>-0.04</v>
           </cell>
           <cell r="M237">
-            <v>24.694461559704717</v>
+            <v>0.30633285338385041</v>
           </cell>
         </row>
         <row r="238">
           <cell r="I238">
-            <v>-5.9999999999999724E-3</v>
+            <v>-3.7999999999999999E-2</v>
           </cell>
           <cell r="J238">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="L238">
-            <v>-6.9999999999999724E-3</v>
+            <v>-3.9E-2</v>
           </cell>
           <cell r="M238">
-            <v>25.804957264360048</v>
+            <v>0.38351958154803484</v>
           </cell>
         </row>
         <row r="239">
           <cell r="I239">
-            <v>-4.9999999999999723E-3</v>
+            <v>-3.6999999999999998E-2</v>
           </cell>
           <cell r="J239">
-            <v>17</v>
+            <v>0</v>
           </cell>
           <cell r="L239">
-            <v>-5.9999999999999724E-3</v>
+            <v>-3.7999999999999999E-2</v>
           </cell>
           <cell r="M239">
-            <v>26.81352444662306</v>
+            <v>0.47745086551047328</v>
           </cell>
         </row>
         <row r="240">
           <cell r="I240">
-            <v>-3.9999999999999723E-3</v>
+            <v>-3.5999999999999997E-2</v>
           </cell>
           <cell r="J240">
-            <v>23</v>
+            <v>1</v>
           </cell>
           <cell r="L240">
-            <v>-4.9999999999999723E-3</v>
+            <v>-3.6999999999999998E-2</v>
           </cell>
           <cell r="M240">
-            <v>27.704596967012165</v>
+            <v>0.59104017531798669</v>
           </cell>
         </row>
         <row r="241">
           <cell r="I241">
-            <v>-2.9999999999999723E-3</v>
+            <v>-3.4999999999999996E-2</v>
           </cell>
           <cell r="J241">
-            <v>37</v>
+            <v>4</v>
           </cell>
           <cell r="L241">
-            <v>-3.9999999999999723E-3</v>
+            <v>-3.5999999999999997E-2</v>
           </cell>
           <cell r="M241">
-            <v>28.464066550027482</v>
+            <v>0.72753266253923077</v>
           </cell>
         </row>
         <row r="242">
           <cell r="I242">
-            <v>-1.9999999999999723E-3</v>
+            <v>-3.3999999999999996E-2</v>
           </cell>
           <cell r="J242">
-            <v>41</v>
+            <v>2</v>
           </cell>
           <cell r="L242">
-            <v>-2.9999999999999723E-3</v>
+            <v>-3.4999999999999996E-2</v>
           </cell>
           <cell r="M242">
-            <v>29.079653753616999</v>
+            <v>0.89050254374147597</v>
           </cell>
         </row>
         <row r="243">
           <cell r="I243">
-            <v>-9.9999999999997227E-4</v>
+            <v>-3.2999999999999995E-2</v>
           </cell>
           <cell r="J243">
-            <v>35</v>
+            <v>1</v>
           </cell>
           <cell r="L243">
-            <v>-1.9999999999999723E-3</v>
+            <v>-3.3999999999999996E-2</v>
           </cell>
           <cell r="M243">
-            <v>29.541238007479279</v>
+            <v>1.0838395846539897</v>
           </cell>
         </row>
         <row r="244">
           <cell r="I244">
-            <v>2.7755575615628914E-17</v>
+            <v>-3.1999999999999994E-2</v>
           </cell>
           <cell r="J244">
-            <v>45</v>
+            <v>1</v>
           </cell>
           <cell r="L244">
-            <v>-9.9999999999997227E-4</v>
+            <v>-3.2999999999999995E-2</v>
           </cell>
           <cell r="M244">
-            <v>29.84113433421124</v>
+            <v>1.3117226816436751</v>
           </cell>
         </row>
         <row r="245">
           <cell r="I245">
-            <v>1.0000000000000278E-3</v>
+            <v>-3.0999999999999993E-2</v>
           </cell>
           <cell r="J245">
-            <v>53</v>
+            <v>3</v>
           </cell>
           <cell r="L245">
-            <v>2.7755575615628914E-17</v>
+            <v>-3.1999999999999994E-2</v>
           </cell>
           <cell r="M245">
-            <v>29.974306183221255</v>
+            <v>1.578578645060458</v>
           </cell>
         </row>
         <row r="246">
           <cell r="I246">
-            <v>2.0000000000000278E-3</v>
+            <v>-2.9999999999999992E-2</v>
           </cell>
           <cell r="J246">
-            <v>37</v>
+            <v>1</v>
           </cell>
           <cell r="L246">
-            <v>1.0000000000000278E-3</v>
+            <v>-3.0999999999999993E-2</v>
           </cell>
           <cell r="M246">
-            <v>29.938506141234956</v>
+            <v>1.8890245151375733</v>
           </cell>
         </row>
         <row r="247">
           <cell r="I247">
-            <v>3.0000000000000278E-3</v>
+            <v>-2.8999999999999991E-2</v>
           </cell>
           <cell r="J247">
-            <v>26</v>
+            <v>4</v>
           </cell>
           <cell r="L247">
-            <v>2.0000000000000278E-3</v>
+            <v>-2.9999999999999992E-2</v>
           </cell>
           <cell r="M247">
-            <v>29.734339026119326</v>
+            <v>2.2477920988013178</v>
           </cell>
         </row>
         <row r="248">
           <cell r="I248">
-            <v>4.0000000000000278E-3</v>
+            <v>-2.799999999999999E-2</v>
           </cell>
           <cell r="J248">
-            <v>39</v>
+            <v>1</v>
           </cell>
           <cell r="L248">
-            <v>3.0000000000000278E-3</v>
+            <v>-2.8999999999999991E-2</v>
           </cell>
           <cell r="M248">
-            <v>29.365244888858772</v>
+            <v>2.6596339130588227</v>
           </cell>
         </row>
         <row r="249">
           <cell r="I249">
-            <v>5.0000000000000279E-3</v>
+            <v>-2.6999999999999989E-2</v>
           </cell>
           <cell r="J249">
-            <v>33</v>
+            <v>4</v>
           </cell>
           <cell r="L249">
-            <v>4.0000000000000278E-3</v>
+            <v>-2.799999999999999E-2</v>
           </cell>
           <cell r="M249">
-            <v>28.837402591235453</v>
+            <v>3.1292103587889639</v>
           </cell>
         </row>
         <row r="250">
           <cell r="I250">
-            <v>6.0000000000000279E-3</v>
+            <v>-2.5999999999999988E-2</v>
           </cell>
           <cell r="J250">
-            <v>29</v>
+            <v>1</v>
           </cell>
           <cell r="L250">
-            <v>5.0000000000000279E-3</v>
+            <v>-2.6999999999999989E-2</v>
           </cell>
           <cell r="M250">
-            <v>28.159557735840721</v>
+            <v>3.6609587205509038</v>
           </cell>
         </row>
         <row r="251">
           <cell r="I251">
-            <v>7.0000000000000279E-3</v>
+            <v>-2.4999999999999988E-2</v>
           </cell>
           <cell r="J251">
-            <v>26</v>
+            <v>5</v>
           </cell>
           <cell r="L251">
-            <v>6.0000000000000279E-3</v>
+            <v>-2.5999999999999988E-2</v>
           </cell>
           <cell r="M251">
-            <v>27.342781644290781</v>
+            <v>4.258945476645092</v>
           </cell>
         </row>
         <row r="252">
           <cell r="I252">
-            <v>8.0000000000000279E-3</v>
+            <v>-2.3999999999999987E-2</v>
           </cell>
           <cell r="J252">
-            <v>22</v>
+            <v>1</v>
           </cell>
           <cell r="L252">
-            <v>7.0000000000000279E-3</v>
+            <v>-2.4999999999999988E-2</v>
           </cell>
           <cell r="M252">
-            <v>26.400170664392089</v>
+            <v>4.9267043820016658</v>
           </cell>
         </row>
         <row r="253">
           <cell r="I253">
-            <v>9.0000000000000288E-3</v>
+            <v>-2.2999999999999986E-2</v>
           </cell>
           <cell r="J253">
-            <v>24</v>
+            <v>2</v>
           </cell>
           <cell r="L253">
-            <v>8.0000000000000279E-3</v>
+            <v>-2.3999999999999987E-2</v>
           </cell>
           <cell r="M253">
-            <v>25.346497213325758</v>
+            <v>5.6670638170172571</v>
           </cell>
         </row>
         <row r="254">
           <cell r="I254">
-            <v>1.000000000000003E-2</v>
+            <v>-2.1999999999999985E-2</v>
           </cell>
           <cell r="J254">
-            <v>30</v>
+            <v>2</v>
           </cell>
           <cell r="L254">
-            <v>9.0000000000000288E-3</v>
+            <v>-2.2999999999999986E-2</v>
           </cell>
           <cell r="M254">
-            <v>24.197825535155634</v>
+            <v>6.4819679309391072</v>
           </cell>
         </row>
         <row r="255">
           <cell r="I255">
-            <v>1.1000000000000031E-2</v>
+            <v>-2.0999999999999984E-2</v>
           </cell>
           <cell r="J255">
-            <v>29</v>
+            <v>3</v>
           </cell>
           <cell r="L255">
-            <v>1.000000000000003E-2</v>
+            <v>-2.1999999999999985E-2</v>
           </cell>
           <cell r="M255">
-            <v>22.971106103509396</v>
+            <v>7.3722970932413006</v>
           </cell>
         </row>
         <row r="256">
           <cell r="I256">
-            <v>1.2000000000000031E-2</v>
+            <v>-1.9999999999999983E-2</v>
           </cell>
           <cell r="J256">
-            <v>21</v>
+            <v>5</v>
           </cell>
           <cell r="L256">
-            <v>1.1000000000000031E-2</v>
+            <v>-2.0999999999999984E-2</v>
           </cell>
           <cell r="M256">
-            <v>21.683762906467617</v>
+            <v>8.3376940391129448</v>
           </cell>
         </row>
         <row r="257">
           <cell r="I257">
-            <v>1.3000000000000032E-2</v>
+            <v>-1.8999999999999982E-2</v>
           </cell>
           <cell r="J257">
-            <v>19</v>
+            <v>9</v>
           </cell>
           <cell r="L257">
-            <v>1.2000000000000031E-2</v>
+            <v>-1.9999999999999983E-2</v>
           </cell>
           <cell r="M257">
-            <v>20.353287519327644</v>
+            <v>9.3764027912942609</v>
           </cell>
         </row>
         <row r="258">
           <cell r="I258">
-            <v>1.4000000000000033E-2</v>
+            <v>-1.7999999999999981E-2</v>
           </cell>
           <cell r="J258">
-            <v>20</v>
+            <v>6</v>
           </cell>
           <cell r="L258">
-            <v>1.3000000000000032E-2</v>
+            <v>-1.8999999999999982E-2</v>
           </cell>
           <cell r="M258">
-            <v>18.996852945382901</v>
+            <v>10.485127896633797</v>
           </cell>
         </row>
         <row r="259">
           <cell r="I259">
-            <v>1.5000000000000034E-2</v>
+            <v>-1.699999999999998E-2</v>
           </cell>
           <cell r="J259">
-            <v>11</v>
+            <v>10</v>
           </cell>
           <cell r="L259">
-            <v>1.4000000000000033E-2</v>
+            <v>-1.7999999999999981E-2</v>
           </cell>
           <cell r="M259">
-            <v>17.630958759087321</v>
+            <v>11.658921673763489</v>
           </cell>
         </row>
         <row r="260">
           <cell r="I260">
-            <v>1.6000000000000035E-2</v>
+            <v>-1.599999999999998E-2</v>
           </cell>
           <cell r="J260">
-            <v>11</v>
+            <v>13</v>
           </cell>
           <cell r="L260">
-            <v>1.5000000000000034E-2</v>
+            <v>-1.699999999999998E-2</v>
           </cell>
           <cell r="M260">
-            <v>16.271117218493135</v>
+            <v>12.891106979905215</v>
           </cell>
         </row>
         <row r="261">
           <cell r="I261">
-            <v>1.7000000000000036E-2</v>
+            <v>-1.4999999999999979E-2</v>
           </cell>
           <cell r="J261">
-            <v>7</v>
+            <v>11</v>
           </cell>
           <cell r="L261">
-            <v>1.6000000000000035E-2</v>
+            <v>-1.599999999999998E-2</v>
           </cell>
           <cell r="M261">
-            <v>14.931587840618413</v>
+            <v>14.173242436056498</v>
           </cell>
         </row>
         <row r="262">
           <cell r="I262">
-            <v>1.8000000000000037E-2</v>
+            <v>-1.3999999999999978E-2</v>
           </cell>
           <cell r="J262">
-            <v>12</v>
+            <v>24</v>
           </cell>
           <cell r="L262">
-            <v>1.7000000000000036E-2</v>
+            <v>-1.4999999999999979E-2</v>
           </cell>
           <cell r="M262">
-            <v>13.625165579865037</v>
+            <v>15.495136085031207</v>
           </cell>
         </row>
         <row r="263">
           <cell r="I263">
-            <v>1.9000000000000038E-2</v>
+            <v>-1.2999999999999977E-2</v>
           </cell>
           <cell r="J263">
-            <v>7</v>
+            <v>18</v>
           </cell>
           <cell r="L263">
-            <v>1.8000000000000037E-2</v>
+            <v>-1.3999999999999978E-2</v>
           </cell>
           <cell r="M263">
-            <v>12.363025342638814</v>
+            <v>16.844912102018611</v>
           </cell>
         </row>
         <row r="264">
           <cell r="I264">
-            <v>2.0000000000000039E-2</v>
+            <v>-1.1999999999999976E-2</v>
           </cell>
           <cell r="J264">
-            <v>5</v>
+            <v>27</v>
           </cell>
           <cell r="L264">
-            <v>1.9000000000000038E-2</v>
+            <v>-1.2999999999999977E-2</v>
           </cell>
           <cell r="M264">
-            <v>11.154623231589555</v>
+            <v>18.209133462105321</v>
           </cell>
         </row>
         <row r="265">
           <cell r="I265">
-            <v>2.1000000000000039E-2</v>
+            <v>-1.0999999999999975E-2</v>
           </cell>
           <cell r="J265">
-            <v>7</v>
+            <v>18</v>
           </cell>
           <cell r="L265">
-            <v>2.0000000000000039E-2</v>
+            <v>-1.1999999999999976E-2</v>
           </cell>
           <cell r="M265">
-            <v>10.007652748181465</v>
+            <v>19.572981447529923</v>
           </cell>
         </row>
         <row r="266">
           <cell r="I266">
-            <v>2.200000000000004E-2</v>
+            <v>-9.9999999999999742E-3</v>
           </cell>
           <cell r="J266">
-            <v>14</v>
+            <v>19</v>
           </cell>
           <cell r="L266">
-            <v>2.1000000000000039E-2</v>
+            <v>-1.0999999999999975E-2</v>
           </cell>
           <cell r="M266">
-            <v>8.9280522821969779</v>
+            <v>20.920490626570793</v>
           </cell>
         </row>
         <row r="267">
           <cell r="I267">
-            <v>2.3000000000000041E-2</v>
+            <v>-8.9999999999999733E-3</v>
           </cell>
           <cell r="J267">
-            <v>3</v>
+            <v>24</v>
           </cell>
           <cell r="L267">
-            <v>2.200000000000004E-2</v>
+            <v>-9.9999999999999742E-3</v>
           </cell>
           <cell r="M267">
-            <v>7.9200586489003983</v>
+            <v>22.234835553740457</v>
           </cell>
         </row>
         <row r="268">
           <cell r="L268">
-            <v>2.3000000000000041E-2</v>
+            <v>-8.9999999999999733E-3</v>
           </cell>
           <cell r="M268">
-            <v>6.9863002426241483</v>
+            <v>23.49866304135163</v>
           </cell>
         </row>
         <row r="269">
           <cell r="L269">
-            <v>2.4000000000000042E-2</v>
+            <v>-7.9999999999999724E-3</v>
           </cell>
           <cell r="M269">
-            <v>6.1279225789406535</v>
+            <v>24.694461559704717</v>
           </cell>
         </row>
       </sheetData>
@@ -10079,8 +9263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD30"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10099,7 +9283,7 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="B2" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -10121,7 +9305,7 @@
         <v>380.8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -10142,7 +9326,7 @@
         <v>5947</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -10154,7 +9338,7 @@
         <v>34189</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -10166,20 +9350,20 @@
         <v>183513.2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15">
       <c r="B10" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>8</v>
@@ -10187,10 +9371,10 @@
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>9</v>
@@ -10198,7 +9382,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>7</v>
@@ -10209,7 +9393,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>11</v>
@@ -10227,62 +9411,62 @@
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="C23" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="C24" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="C25" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="2" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -10297,8 +9481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B27957-A42B-4AB7-A411-12A70E029F5D}">
   <dimension ref="B1:FJ122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="CG96" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="BS111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="BW135" sqref="BW135"/>
@@ -10316,263 +9500,263 @@
   <sheetData>
     <row r="1" spans="2:166" ht="15">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AY1" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BC1" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BG1" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BK1" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BO1" s="37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BS1" s="37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="2:166">
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:166" ht="15">
       <c r="B3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D3" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="37" t="s">
+      <c r="I3" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="J3" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="K3" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="L3" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="M3" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="N3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="O3" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="P3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="Q3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="R3" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="S3" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="T3" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="U3" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="37" t="s">
+      <c r="V3" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="U3" s="37" t="s">
+      <c r="W3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="X3" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="Y3" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="X3" s="37" t="s">
+      <c r="Z3" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="37" t="s">
+      <c r="AA3" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="Z3" s="37" t="s">
+      <c r="AB3" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="AA3" s="37" t="s">
+      <c r="AC3" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AB3" s="37" t="s">
+      <c r="AD3" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AE3" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="AD3" s="37" t="s">
+      <c r="AF3" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="AE3" s="37" t="s">
+      <c r="AG3" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AH3" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="AG3" s="37" t="s">
+      <c r="AI3" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="AH3" s="37" t="s">
+      <c r="AJ3" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="AI3" s="37" t="s">
+      <c r="AK3" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="AJ3" s="37" t="s">
+      <c r="AL3" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AK3" s="37" t="s">
+      <c r="AM3" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="AL3" s="37" t="s">
+      <c r="AN3" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="AM3" s="37" t="s">
+      <c r="AO3" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="AN3" s="37" t="s">
+      <c r="AP3" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="AO3" s="37" t="s">
+      <c r="AQ3" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="AP3" s="37" t="s">
+      <c r="AR3" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="AQ3" s="37" t="s">
+      <c r="AS3" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="AR3" s="37" t="s">
+      <c r="AT3" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="AS3" s="37" t="s">
+      <c r="AU3" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="AT3" s="37" t="s">
+      <c r="AV3" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="AU3" s="37" t="s">
+      <c r="AW3" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="AV3" s="37" t="s">
+      <c r="AX3" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="AW3" s="37" t="s">
+      <c r="AY3" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="AX3" s="37" t="s">
+      <c r="AZ3" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="AY3" s="37" t="s">
+      <c r="BA3" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="AZ3" s="37" t="s">
+      <c r="BB3" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="BA3" s="37" t="s">
+      <c r="BC3" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="BB3" s="37" t="s">
+      <c r="BD3" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="BC3" s="37" t="s">
+      <c r="BE3" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="BD3" s="37" t="s">
+      <c r="BF3" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="BE3" s="37" t="s">
+      <c r="BG3" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="BF3" s="37" t="s">
+      <c r="BH3" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="BG3" s="37" t="s">
+      <c r="BI3" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="BH3" s="37" t="s">
+      <c r="BJ3" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="BI3" s="37" t="s">
+      <c r="BK3" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="BJ3" s="37" t="s">
+      <c r="BL3" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="BK3" s="37" t="s">
+      <c r="BM3" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="BL3" s="37" t="s">
+      <c r="BN3" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="BM3" s="37" t="s">
+      <c r="BO3" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="BN3" s="37" t="s">
+      <c r="BP3" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="BO3" s="37" t="s">
+      <c r="BQ3" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="BP3" s="37" t="s">
+      <c r="BR3" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="BQ3" s="37" t="s">
+      <c r="BS3" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="BR3" s="37" t="s">
+      <c r="BT3" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="BS3" s="37" t="s">
+      <c r="BU3" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="BT3" s="38" t="s">
+      <c r="BV3" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="BU3" s="38" t="s">
+      <c r="BW3" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="BV3" s="38" t="s">
+      <c r="BX3" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="BW3" s="38" t="s">
+      <c r="BY3" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="BX3" s="38" t="s">
+      <c r="BZ3" s="38" t="s">
         <v>133</v>
-      </c>
-      <c r="BY3" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="BZ3" s="38" t="s">
-        <v>135</v>
       </c>
       <c r="CI3" s="2">
         <v>2008</v>
@@ -10887,70 +10071,70 @@
     </row>
     <row r="4" spans="2:166">
       <c r="B4" s="40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:166">
       <c r="B5" s="40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:166">
       <c r="B6" s="40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="2:166">
       <c r="B7" s="40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:166">
       <c r="B8" s="40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:166" ht="15">
       <c r="B9" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:166">
       <c r="B10" s="40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="2:166">
       <c r="B11" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:166">
       <c r="B12" s="40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="2:166">
       <c r="B13" s="40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C13" s="40"/>
     </row>
     <row r="14" spans="2:166">
       <c r="B14" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" s="40"/>
     </row>
     <row r="15" spans="2:166" ht="15">
       <c r="B15" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" s="40"/>
     </row>
     <row r="16" spans="2:166" ht="15">
       <c r="B16" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C16" s="40"/>
     </row>
@@ -10960,13 +10144,13 @@
     </row>
     <row r="18" spans="2:3" ht="15">
       <c r="B18" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C18" s="37"/>
     </row>
     <row r="19" spans="2:3" ht="15">
       <c r="B19" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C19" s="40"/>
     </row>
@@ -10976,242 +10160,242 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C21" s="40"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C22" s="40"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C23" s="40"/>
     </row>
     <row r="24" spans="2:3" ht="15">
       <c r="B24" s="41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C24" s="37"/>
     </row>
     <row r="25" spans="2:3" ht="15">
       <c r="B25" s="41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C25" s="37"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="15">
       <c r="B47" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="41" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -11224,8 +10408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FD4A5-C172-4508-BDD9-9132B91E029B}">
   <dimension ref="A1:CA1618"/>
   <sheetViews>
-    <sheetView topLeftCell="V96" workbookViewId="0">
-      <selection activeCell="AD114" sqref="AD114"/>
+    <sheetView topLeftCell="J107" workbookViewId="0">
+      <selection activeCell="AA106" sqref="AA106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11244,144 +10428,144 @@
     </row>
     <row r="2" spans="8:79" ht="15">
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="8:79">
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="8:30" ht="15">
       <c r="H35" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="8:30">
       <c r="I36" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="8:30" ht="15">
       <c r="AD37" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="8:30" ht="15">
       <c r="AD38" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="8:30">
       <c r="AD39" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="8:30">
       <c r="I42" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="9:9">
       <c r="I58" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="9:9">
       <c r="I75" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="8:8" ht="15">
       <c r="H96" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="9:10">
       <c r="I128" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="8:30">
       <c r="J129" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="8:30">
       <c r="J130" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="8:30" ht="15">
       <c r="H132" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="8:30" ht="15">
       <c r="AD137" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="8:30">
       <c r="AD138" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" spans="8:10">
       <c r="I161" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" spans="8:10">
       <c r="J162" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163" spans="8:10">
       <c r="J163" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165" spans="8:10" ht="15">
       <c r="H165" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B184" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C184" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B184" s="27" t="s">
+      <c r="D184" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C184" s="27" t="s">
+      <c r="E184" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D184" s="27" t="s">
+      <c r="F184" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E184" s="27" t="s">
+      <c r="G184" s="27" t="s">
         <v>37</v>
-      </c>
-      <c r="F184" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G184" s="27" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -11448,7 +10632,7 @@
       <c r="G204" s="28"/>
       <c r="I204" s="29"/>
       <c r="J204" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K204" s="30" t="e">
         <f>MIN(G179:G1204)</f>
@@ -11459,7 +10643,7 @@
       <c r="G205" s="28"/>
       <c r="I205" s="29"/>
       <c r="J205" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K205" s="30" t="e">
         <f>MAX(G179:G1204)</f>
@@ -11470,7 +10654,7 @@
       <c r="G206" s="28"/>
       <c r="I206" s="29"/>
       <c r="J206" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K206" s="30" t="e">
         <f>AVERAGE(G179:G1204)</f>
@@ -11481,7 +10665,7 @@
       <c r="G207" s="28"/>
       <c r="I207" s="29"/>
       <c r="J207" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K207" s="30" t="e">
         <f>MEDIAN(G179:G1204)</f>
@@ -11492,7 +10676,7 @@
       <c r="G208" s="28"/>
       <c r="I208" s="29"/>
       <c r="J208" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K208" s="30" t="e">
         <f>_xlfn.STDEV.P(G179:G1204)</f>
@@ -11504,7 +10688,7 @@
       <c r="G209" s="28"/>
       <c r="I209" s="29"/>
       <c r="J209" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K209" s="30" t="e">
         <f>3*K208</f>
@@ -11512,21 +10696,21 @@
       </c>
       <c r="L209" s="29"/>
       <c r="M209" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="210" spans="7:20" ht="15">
       <c r="G210" s="28"/>
       <c r="I210" s="29"/>
       <c r="J210" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K210" s="29" t="s">
         <v>49</v>
-      </c>
-      <c r="K210" s="29" t="s">
-        <v>51</v>
       </c>
       <c r="L210" s="29"/>
       <c r="M210" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="211" spans="7:20">
@@ -11538,7 +10722,7 @@
     <row r="213" spans="7:20">
       <c r="G213" s="28"/>
       <c r="L213" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M213" s="33">
         <v>1014</v>
@@ -11547,40 +10731,40 @@
     <row r="214" spans="7:20" ht="15" thickBot="1">
       <c r="G214" s="28"/>
       <c r="L214" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S214" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O214" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S214" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="215" spans="7:20" ht="15" customHeight="1">
       <c r="G215" s="28"/>
       <c r="L215" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M215" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O215" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="M215" s="34" t="s">
+      <c r="P215" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="O215" s="35" t="s">
+      <c r="S215" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="P215" s="36" t="s">
+      <c r="T215" s="36" t="s">
         <v>59</v>
-      </c>
-      <c r="S215" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="T215" s="36" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="216" spans="7:20">
       <c r="G216" s="28"/>
       <c r="R216" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="217" spans="7:20">
@@ -11589,7 +10773,7 @@
     <row r="218" spans="7:20">
       <c r="G218" s="28"/>
       <c r="R218" s="43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="219" spans="7:20">
@@ -11599,7 +10783,7 @@
     <row r="220" spans="7:20">
       <c r="G220" s="28"/>
       <c r="R220" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="221" spans="7:20">
@@ -11609,7 +10793,7 @@
     <row r="222" spans="7:20">
       <c r="G222" s="28"/>
       <c r="R222" s="45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="223" spans="7:20">
@@ -11618,7 +10802,7 @@
     <row r="224" spans="7:20">
       <c r="G224" s="28"/>
       <c r="R224" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="225" spans="7:30">
@@ -11627,7 +10811,7 @@
     <row r="226" spans="7:30">
       <c r="G226" s="28"/>
       <c r="R226" s="46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="227" spans="7:30">
@@ -11636,7 +10820,7 @@
     <row r="228" spans="7:30">
       <c r="G228" s="28"/>
       <c r="R228" s="46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="229" spans="7:30">
@@ -11652,13 +10836,13 @@
     <row r="232" spans="7:30" ht="15">
       <c r="G232" s="28"/>
       <c r="AD232" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="233" spans="7:30">
       <c r="G233" s="28"/>
       <c r="AD233" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="234" spans="7:30">
@@ -11916,13 +11100,13 @@
     <row r="318" spans="7:30" ht="15">
       <c r="G318" s="28"/>
       <c r="AD318" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="319" spans="7:30">
       <c r="G319" s="28"/>
       <c r="AD319" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="320" spans="7:30">
@@ -15881,14 +15065,14 @@
   <sheetData>
     <row r="2" spans="2:26" ht="15">
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -15912,14 +15096,14 @@
     </row>
     <row r="3" spans="2:26" ht="15">
       <c r="B3" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -15943,14 +15127,14 @@
     </row>
     <row r="4" spans="2:26" ht="15">
       <c r="B4" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
       <c r="G4" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -15974,14 +15158,14 @@
     </row>
     <row r="5" spans="2:26" ht="15">
       <c r="B5" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="17"/>
       <c r="G5" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
@@ -16005,14 +15189,14 @@
     </row>
     <row r="6" spans="2:26" ht="15">
       <c r="B6" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
       <c r="G6" s="18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -16036,14 +15220,14 @@
     </row>
     <row r="7" spans="2:26" ht="15">
       <c r="B7" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
       <c r="G7" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
@@ -16067,14 +15251,14 @@
     </row>
     <row r="8" spans="2:26" ht="15">
       <c r="B8" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
